--- a/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
+++ b/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\总体管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE6E4A8-008E-454B-B5D9-98C66624D354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A4330-4E0E-4383-A397-A94EC80B5D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="105">
   <si>
     <t>*</t>
   </si>
@@ -274,13 +274,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>王丽</t>
-  </si>
-  <si>
-    <t>王丽</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -421,6 +414,71 @@
   </si>
   <si>
     <t>任秋凤</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/25】
+为客户提取武汉店F2素材</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>运营执行</t>
+  </si>
+  <si>
+    <t>运营执行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/11/25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>门店长</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>辛红</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Kris</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/11/21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/21】
+为客户提取香港店门头素材</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/22】
+已为客户提取香港店门头素材</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/26】
+已为客户提取香港店门头素材</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>154367
+114861
+154366</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>114878
+154127</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -910,7 +968,70 @@
     <cellStyle name="脱浦 [0.00]_laroux" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="脱浦_laroux" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="93">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3280,11 +3401,11 @@
   <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12"/>
@@ -3370,7 +3491,7 @@
       </c>
       <c r="S2" s="15">
         <f>COUNTA(B6:B65)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T2" s="14" t="s">
         <v>1</v>
@@ -3415,7 +3536,7 @@
       <c r="S3" s="15">
         <f>COUNTIF(B:B,"确认
 完成")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T3" s="14" t="s">
         <v>2</v>
@@ -3532,7 +3653,7 @@
         <v>37</v>
       </c>
       <c r="U5" s="48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V5" s="49"/>
       <c r="W5" s="19" t="s">
@@ -3562,13 +3683,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>23</v>
@@ -3583,10 +3704,10 @@
         <v>25</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>40</v>
@@ -3601,22 +3722,22 @@
         <v>60</v>
       </c>
       <c r="O6" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="S6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="T6" s="43" t="s">
         <v>66</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="43" t="s">
-        <v>68</v>
       </c>
       <c r="U6" s="50"/>
       <c r="V6" s="51"/>
@@ -3635,13 +3756,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>22</v>
@@ -3656,10 +3777,10 @@
         <v>24</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K7" s="40" t="s">
         <v>40</v>
@@ -3674,22 +3795,22 @@
         <v>59</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P7" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="S7" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="43" t="s">
+      <c r="T7" s="41" t="s">
         <v>79</v>
-      </c>
-      <c r="S7" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="T7" s="41" t="s">
-        <v>81</v>
       </c>
       <c r="U7" s="50"/>
       <c r="V7" s="51"/>
@@ -3718,31 +3839,31 @@
         <v>3</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H8" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>83</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>85</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>40</v>
@@ -3757,28 +3878,28 @@
         <v>59</v>
       </c>
       <c r="O8" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="42" t="s">
         <v>86</v>
-      </c>
-      <c r="P8" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="42" t="s">
-        <v>88</v>
       </c>
       <c r="R8" s="40">
         <v>43760</v>
       </c>
       <c r="S8" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T8" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U8" s="50"/>
       <c r="V8" s="51"/>
       <c r="W8" s="16"/>
       <c r="X8" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y8" s="21" t="s">
         <v>10</v>
@@ -3801,13 +3922,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>22</v>
@@ -3822,10 +3943,10 @@
         <v>24</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>40</v>
@@ -3840,28 +3961,28 @@
         <v>59</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R9" s="43">
         <v>43770</v>
       </c>
       <c r="S9" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T9" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U9" s="50"/>
       <c r="V9" s="51"/>
       <c r="W9" s="16"/>
       <c r="X9" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y9" s="21" t="s">
         <v>14</v>
@@ -3878,35 +3999,73 @@
       <c r="AC9" s="23"/>
       <c r="AD9" s="23"/>
     </row>
-    <row r="10" spans="1:30" s="2" customFormat="1" ht="24">
-      <c r="A10" s="27">
+    <row r="10" spans="1:30" s="2" customFormat="1" ht="36">
+      <c r="A10" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="47"/>
+      <c r="B10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="R10" s="43">
+        <v>43791</v>
+      </c>
+      <c r="S10" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" s="50"/>
+      <c r="V10" s="51"/>
       <c r="W10" s="16"/>
       <c r="X10" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="21" t="s">
         <v>13</v>
@@ -3921,27 +4080,59 @@
       <c r="AC10" s="23"/>
       <c r="AD10" s="23"/>
     </row>
-    <row r="11" spans="1:30" s="2" customFormat="1">
+    <row r="11" spans="1:30" s="2" customFormat="1" ht="36">
       <c r="A11" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="32"/>
+      <c r="B11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="45" t="s">
+        <v>102</v>
+      </c>
       <c r="R11" s="31"/>
       <c r="S11" s="30"/>
       <c r="T11" s="31"/>
@@ -3951,7 +4142,9 @@
       <c r="X11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Y11" s="21"/>
+      <c r="Y11" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="Z11" s="21" t="s">
         <v>49</v>
       </c>
@@ -5757,7 +5950,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="61">
-    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="U57:V57"/>
     <mergeCell ref="U65:V65"/>
     <mergeCell ref="U59:V59"/>
     <mergeCell ref="U60:V60"/>
@@ -5765,14 +5965,6 @@
     <mergeCell ref="U62:V62"/>
     <mergeCell ref="U63:V63"/>
     <mergeCell ref="U64:V64"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="U41:V41"/>
     <mergeCell ref="U42:V42"/>
     <mergeCell ref="U43:V43"/>
     <mergeCell ref="U44:V44"/>
@@ -5818,314 +6010,348 @@
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="U14:V14"/>
     <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U7:V7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 Q10:T25 Q9 C6:U6 O9:O25 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 P9:P65 H9:N65 Q51:T65 U10:U65">
-    <cfRule type="expression" dxfId="83" priority="424">
+  <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 Q10:T25 C6:N6 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 Q51:T65 U10:U65 P6:U6 P9:P65 O10:O25 H9:N65 Q9:Q11">
+    <cfRule type="expression" dxfId="92" priority="433">
       <formula>$B6="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="429">
+    <cfRule type="expression" dxfId="91" priority="438">
       <formula>$B6="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="430">
+    <cfRule type="expression" dxfId="90" priority="439">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:T26">
-    <cfRule type="expression" dxfId="80" priority="421">
+    <cfRule type="expression" dxfId="89" priority="430">
       <formula>$B26="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="422">
+    <cfRule type="expression" dxfId="88" priority="431">
       <formula>$B26="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="423">
+    <cfRule type="expression" dxfId="87" priority="432">
       <formula>$B26="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="expression" dxfId="77" priority="403">
+    <cfRule type="expression" dxfId="86" priority="412">
       <formula>$B27="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="404">
+    <cfRule type="expression" dxfId="85" priority="413">
       <formula>$B27="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="405">
+    <cfRule type="expression" dxfId="84" priority="414">
       <formula>$B27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="74" priority="400">
+    <cfRule type="expression" dxfId="83" priority="409">
       <formula>$B29="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="401">
+    <cfRule type="expression" dxfId="82" priority="410">
       <formula>$B29="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="402">
+    <cfRule type="expression" dxfId="81" priority="411">
       <formula>$B29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="71" priority="391">
+    <cfRule type="expression" dxfId="80" priority="400">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="392">
+    <cfRule type="expression" dxfId="79" priority="401">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="393">
+    <cfRule type="expression" dxfId="78" priority="402">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="68" priority="388">
+    <cfRule type="expression" dxfId="77" priority="397">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="389">
+    <cfRule type="expression" dxfId="76" priority="398">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="390">
+    <cfRule type="expression" dxfId="75" priority="399">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="65" priority="379">
+    <cfRule type="expression" dxfId="74" priority="388">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="380">
+    <cfRule type="expression" dxfId="73" priority="389">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="381">
+    <cfRule type="expression" dxfId="72" priority="390">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="expression" dxfId="62" priority="373">
+    <cfRule type="expression" dxfId="71" priority="382">
       <formula>$B31="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="374">
+    <cfRule type="expression" dxfId="70" priority="383">
       <formula>$B31="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="375">
+    <cfRule type="expression" dxfId="69" priority="384">
       <formula>$B31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="expression" dxfId="59" priority="247">
+    <cfRule type="expression" dxfId="68" priority="256">
       <formula>$B56="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="248">
+    <cfRule type="expression" dxfId="67" priority="257">
       <formula>$B56="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="249">
+    <cfRule type="expression" dxfId="66" priority="258">
       <formula>$B56="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="expression" dxfId="56" priority="241">
+    <cfRule type="expression" dxfId="65" priority="250">
       <formula>$B57="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="242">
+    <cfRule type="expression" dxfId="64" priority="251">
       <formula>$B57="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="243">
+    <cfRule type="expression" dxfId="63" priority="252">
       <formula>$B57="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:S40">
-    <cfRule type="expression" dxfId="53" priority="139">
+    <cfRule type="expression" dxfId="62" priority="148">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="140">
+    <cfRule type="expression" dxfId="61" priority="149">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="141">
+    <cfRule type="expression" dxfId="60" priority="150">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:T40">
-    <cfRule type="expression" dxfId="50" priority="133">
+    <cfRule type="expression" dxfId="59" priority="142">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="134">
+    <cfRule type="expression" dxfId="58" priority="143">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="135">
+    <cfRule type="expression" dxfId="57" priority="144">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41:S50">
-    <cfRule type="expression" dxfId="47" priority="127">
+    <cfRule type="expression" dxfId="56" priority="136">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="128">
+    <cfRule type="expression" dxfId="55" priority="137">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="129">
+    <cfRule type="expression" dxfId="54" priority="138">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T41:T50">
-    <cfRule type="expression" dxfId="44" priority="121">
+    <cfRule type="expression" dxfId="53" priority="130">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="122">
+    <cfRule type="expression" dxfId="52" priority="131">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="123">
+    <cfRule type="expression" dxfId="51" priority="132">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51:O64 O27:O28">
-    <cfRule type="expression" dxfId="41" priority="55">
+    <cfRule type="expression" dxfId="50" priority="64">
       <formula>$B27="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="56">
+    <cfRule type="expression" dxfId="49" priority="65">
       <formula>$B27="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="57">
+    <cfRule type="expression" dxfId="48" priority="66">
       <formula>$B27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:O27">
-    <cfRule type="expression" dxfId="38" priority="52">
+    <cfRule type="expression" dxfId="47" priority="61">
       <formula>$B25="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="53">
+    <cfRule type="expression" dxfId="46" priority="62">
       <formula>$B25="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="54">
+    <cfRule type="expression" dxfId="45" priority="63">
       <formula>$B25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="expression" dxfId="35" priority="49">
+    <cfRule type="expression" dxfId="44" priority="58">
       <formula>$B29="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="50">
+    <cfRule type="expression" dxfId="43" priority="59">
       <formula>$B29="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="51">
+    <cfRule type="expression" dxfId="42" priority="60">
       <formula>$B29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
-    <cfRule type="expression" dxfId="32" priority="46">
+    <cfRule type="expression" dxfId="41" priority="55">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="47">
+    <cfRule type="expression" dxfId="40" priority="56">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="48">
+    <cfRule type="expression" dxfId="39" priority="57">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="expression" dxfId="29" priority="43">
+    <cfRule type="expression" dxfId="38" priority="52">
       <formula>$B31="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="44">
+    <cfRule type="expression" dxfId="37" priority="53">
       <formula>$B31="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="45">
+    <cfRule type="expression" dxfId="36" priority="54">
       <formula>$B31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65">
-    <cfRule type="expression" dxfId="26" priority="40">
+    <cfRule type="expression" dxfId="35" priority="49">
       <formula>$B65="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="41">
+    <cfRule type="expression" dxfId="34" priority="50">
       <formula>$B65="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="42">
+    <cfRule type="expression" dxfId="33" priority="51">
       <formula>$B65="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O40">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:O50">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$B24="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>$B24="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$B24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9 T9">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:T7">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="C7:N7 P7:T7">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>$B7="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$B7="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$B7="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$B7="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$B6="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$B6="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$B7="暂停"</formula>
+      <formula>$B9="暂停"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B7="取消"</formula>
+      <formula>$B9="取消"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$B7="完了"</formula>
+      <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">

--- a/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
+++ b/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\总体管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A4330-4E0E-4383-A397-A94EC80B5D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604A2625-1BB9-488B-BCC2-AA10AC88BBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
   <si>
     <t>*</t>
   </si>
@@ -267,13 +267,6 @@
   </si>
   <si>
     <t>Tickets</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -419,10 +412,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>【2019/11/25】
 为客户提取武汉店F2素材</t>
     <phoneticPr fontId="2"/>
@@ -485,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -494,6 +483,7 @@
     <numFmt numFmtId="179" formatCode="m/d;@"/>
     <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="181" formatCode="0000\ "/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -767,7 +757,7 @@
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,6 +941,14 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3401,11 +3399,11 @@
   <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12"/>
@@ -3653,7 +3651,7 @@
         <v>37</v>
       </c>
       <c r="U5" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V5" s="49"/>
       <c r="W5" s="19" t="s">
@@ -3683,13 +3681,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>23</v>
@@ -3704,10 +3702,10 @@
         <v>25</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>40</v>
@@ -3718,26 +3716,26 @@
       <c r="M6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="52">
+        <v>1</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="44" t="s">
+      <c r="S6" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="T6" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="43" t="s">
-        <v>66</v>
       </c>
       <c r="U6" s="50"/>
       <c r="V6" s="51"/>
@@ -3756,13 +3754,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>22</v>
@@ -3777,10 +3775,10 @@
         <v>24</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K7" s="40" t="s">
         <v>40</v>
@@ -3791,26 +3789,26 @@
       <c r="M7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="40" t="s">
-        <v>59</v>
+      <c r="N7" s="52">
+        <v>1</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P7" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="S7" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="43" t="s">
+      <c r="T7" s="41" t="s">
         <v>77</v>
-      </c>
-      <c r="S7" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="T7" s="41" t="s">
-        <v>79</v>
       </c>
       <c r="U7" s="50"/>
       <c r="V7" s="51"/>
@@ -3839,31 +3837,31 @@
         <v>3</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>81</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>83</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>40</v>
@@ -3874,32 +3872,32 @@
       <c r="M8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="40" t="s">
-        <v>59</v>
+      <c r="N8" s="52">
+        <v>1</v>
       </c>
       <c r="O8" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="42" t="s">
         <v>84</v>
-      </c>
-      <c r="P8" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="42" t="s">
-        <v>86</v>
       </c>
       <c r="R8" s="40">
         <v>43760</v>
       </c>
       <c r="S8" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T8" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U8" s="50"/>
       <c r="V8" s="51"/>
       <c r="W8" s="16"/>
       <c r="X8" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y8" s="21" t="s">
         <v>10</v>
@@ -3922,13 +3920,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>22</v>
@@ -3943,10 +3941,10 @@
         <v>24</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>40</v>
@@ -3957,32 +3955,32 @@
       <c r="M9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="40" t="s">
-        <v>59</v>
+      <c r="N9" s="52">
+        <v>1</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R9" s="43">
         <v>43770</v>
       </c>
       <c r="S9" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T9" s="41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U9" s="50"/>
       <c r="V9" s="51"/>
       <c r="W9" s="16"/>
       <c r="X9" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y9" s="21" t="s">
         <v>14</v>
@@ -4005,34 +4003,34 @@
         <v>5</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" s="39" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L10" s="40" t="s">
         <v>54</v>
@@ -4040,32 +4038,32 @@
       <c r="M10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="40" t="s">
-        <v>91</v>
+      <c r="N10" s="52">
+        <v>1</v>
       </c>
       <c r="O10" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="P10" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="44" t="s">
-        <v>101</v>
       </c>
       <c r="R10" s="43">
         <v>43791</v>
       </c>
       <c r="S10" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T10" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U10" s="50"/>
       <c r="V10" s="51"/>
       <c r="W10" s="16"/>
       <c r="X10" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y10" s="21" t="s">
         <v>13</v>
@@ -4089,31 +4087,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L11" s="29" t="s">
         <v>54</v>
@@ -4121,17 +4119,17 @@
       <c r="M11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="29" t="s">
-        <v>91</v>
+      <c r="N11" s="53">
+        <v>1</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P11" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R11" s="31"/>
       <c r="S11" s="30"/>
@@ -4143,7 +4141,7 @@
         <v>5</v>
       </c>
       <c r="Y11" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="21" t="s">
         <v>49</v>
@@ -4170,7 +4168,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="30"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="32"/>
@@ -4207,7 +4205,7 @@
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="30"/>
       <c r="P13" s="45"/>
       <c r="Q13" s="32"/>
@@ -4242,7 +4240,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="30"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="32"/>
@@ -4277,7 +4275,7 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="30"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="32"/>
@@ -4312,7 +4310,7 @@
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="30"/>
       <c r="P16" s="45"/>
       <c r="Q16" s="32"/>
@@ -4347,7 +4345,7 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="30"/>
       <c r="P17" s="45"/>
       <c r="Q17" s="32"/>
@@ -4382,7 +4380,7 @@
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="30"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="32"/>
@@ -4417,7 +4415,7 @@
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="30"/>
       <c r="P19" s="45"/>
       <c r="Q19" s="32"/>
@@ -4452,7 +4450,7 @@
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="30"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="32"/>
@@ -4487,7 +4485,7 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="30"/>
       <c r="P21" s="45"/>
       <c r="Q21" s="32"/>
@@ -4522,7 +4520,7 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="30"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="32"/>
@@ -4557,7 +4555,7 @@
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="30"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="32"/>
@@ -4592,7 +4590,7 @@
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="30"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="32"/>
@@ -4627,7 +4625,7 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="N25" s="53"/>
       <c r="O25" s="30"/>
       <c r="P25" s="45"/>
       <c r="Q25" s="32"/>
@@ -4662,7 +4660,7 @@
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="N26" s="53"/>
       <c r="O26" s="30"/>
       <c r="P26" s="45"/>
       <c r="Q26" s="32"/>
@@ -4697,7 +4695,7 @@
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="30"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="32"/>
@@ -4732,7 +4730,7 @@
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="N28" s="53"/>
       <c r="O28" s="30"/>
       <c r="P28" s="45"/>
       <c r="Q28" s="32"/>
@@ -4767,7 +4765,7 @@
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="N29" s="53"/>
       <c r="O29" s="30"/>
       <c r="P29" s="45"/>
       <c r="Q29" s="32"/>
@@ -4802,7 +4800,7 @@
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="N30" s="53"/>
       <c r="O30" s="30"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="32"/>
@@ -4837,7 +4835,7 @@
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="N31" s="53"/>
       <c r="O31" s="30"/>
       <c r="P31" s="45"/>
       <c r="Q31" s="32"/>
@@ -4872,7 +4870,7 @@
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="N32" s="53"/>
       <c r="O32" s="30"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="32"/>
@@ -4907,7 +4905,7 @@
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="N33" s="53"/>
       <c r="O33" s="30"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="32"/>
@@ -4942,7 +4940,7 @@
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="N34" s="53"/>
       <c r="O34" s="30"/>
       <c r="P34" s="45"/>
       <c r="Q34" s="32"/>
@@ -4977,7 +4975,7 @@
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
+      <c r="N35" s="53"/>
       <c r="O35" s="30"/>
       <c r="P35" s="45"/>
       <c r="Q35" s="32"/>
@@ -5012,7 +5010,7 @@
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="N36" s="53"/>
       <c r="O36" s="30"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="32"/>
@@ -5047,7 +5045,7 @@
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="30"/>
       <c r="P37" s="45"/>
       <c r="Q37" s="32"/>
@@ -5082,7 +5080,7 @@
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="N38" s="53"/>
       <c r="O38" s="30"/>
       <c r="P38" s="45"/>
       <c r="Q38" s="32"/>
@@ -5117,7 +5115,7 @@
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
+      <c r="N39" s="53"/>
       <c r="O39" s="30"/>
       <c r="P39" s="45"/>
       <c r="Q39" s="32"/>
@@ -5152,7 +5150,7 @@
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
+      <c r="N40" s="53"/>
       <c r="O40" s="30"/>
       <c r="P40" s="45"/>
       <c r="Q40" s="32"/>
@@ -5187,7 +5185,7 @@
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
+      <c r="N41" s="53"/>
       <c r="O41" s="30"/>
       <c r="P41" s="45"/>
       <c r="Q41" s="32"/>
@@ -5222,7 +5220,7 @@
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
+      <c r="N42" s="53"/>
       <c r="O42" s="30"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="32"/>
@@ -5257,7 +5255,7 @@
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
+      <c r="N43" s="53"/>
       <c r="O43" s="30"/>
       <c r="P43" s="45"/>
       <c r="Q43" s="32"/>
@@ -5292,7 +5290,7 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
+      <c r="N44" s="53"/>
       <c r="O44" s="30"/>
       <c r="P44" s="45"/>
       <c r="Q44" s="32"/>
@@ -5327,7 +5325,7 @@
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
+      <c r="N45" s="53"/>
       <c r="O45" s="30"/>
       <c r="P45" s="45"/>
       <c r="Q45" s="32"/>
@@ -5362,7 +5360,7 @@
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
+      <c r="N46" s="53"/>
       <c r="O46" s="30"/>
       <c r="P46" s="45"/>
       <c r="Q46" s="32"/>
@@ -5397,7 +5395,7 @@
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
+      <c r="N47" s="53"/>
       <c r="O47" s="30"/>
       <c r="P47" s="45"/>
       <c r="Q47" s="32"/>
@@ -5432,7 +5430,7 @@
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
+      <c r="N48" s="53"/>
       <c r="O48" s="30"/>
       <c r="P48" s="45"/>
       <c r="Q48" s="32"/>
@@ -5467,7 +5465,7 @@
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
+      <c r="N49" s="53"/>
       <c r="O49" s="30"/>
       <c r="P49" s="45"/>
       <c r="Q49" s="32"/>
@@ -5502,7 +5500,7 @@
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
+      <c r="N50" s="53"/>
       <c r="O50" s="30"/>
       <c r="P50" s="45"/>
       <c r="Q50" s="32"/>
@@ -5537,7 +5535,7 @@
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
+      <c r="N51" s="53"/>
       <c r="O51" s="30"/>
       <c r="P51" s="45"/>
       <c r="Q51" s="32"/>
@@ -5565,7 +5563,7 @@
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
+      <c r="N52" s="53"/>
       <c r="O52" s="30"/>
       <c r="P52" s="45"/>
       <c r="Q52" s="32"/>
@@ -5593,7 +5591,7 @@
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
+      <c r="N53" s="53"/>
       <c r="O53" s="30"/>
       <c r="P53" s="45"/>
       <c r="Q53" s="32"/>
@@ -5621,7 +5619,7 @@
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
+      <c r="N54" s="53"/>
       <c r="O54" s="30"/>
       <c r="P54" s="45"/>
       <c r="Q54" s="32"/>
@@ -5649,7 +5647,7 @@
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
+      <c r="N55" s="53"/>
       <c r="O55" s="30"/>
       <c r="P55" s="45"/>
       <c r="Q55" s="32"/>
@@ -5677,7 +5675,7 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
+      <c r="N56" s="53"/>
       <c r="O56" s="30"/>
       <c r="P56" s="45"/>
       <c r="Q56" s="32"/>
@@ -5706,7 +5704,7 @@
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
+      <c r="N57" s="53"/>
       <c r="O57" s="30"/>
       <c r="P57" s="45"/>
       <c r="Q57" s="32"/>
@@ -5735,7 +5733,7 @@
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
+      <c r="N58" s="53"/>
       <c r="O58" s="30"/>
       <c r="P58" s="45"/>
       <c r="Q58" s="32"/>
@@ -5764,7 +5762,7 @@
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
+      <c r="N59" s="53"/>
       <c r="O59" s="30"/>
       <c r="P59" s="45"/>
       <c r="Q59" s="32"/>
@@ -5793,7 +5791,7 @@
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
+      <c r="N60" s="53"/>
       <c r="O60" s="30"/>
       <c r="P60" s="45"/>
       <c r="Q60" s="32"/>
@@ -5822,7 +5820,7 @@
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
+      <c r="N61" s="53"/>
       <c r="O61" s="30"/>
       <c r="P61" s="45"/>
       <c r="Q61" s="32"/>
@@ -5851,7 +5849,7 @@
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
+      <c r="N62" s="53"/>
       <c r="O62" s="30"/>
       <c r="P62" s="45"/>
       <c r="Q62" s="32"/>
@@ -5880,7 +5878,7 @@
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
+      <c r="N63" s="53"/>
       <c r="O63" s="30"/>
       <c r="P63" s="45"/>
       <c r="Q63" s="32"/>
@@ -5908,7 +5906,7 @@
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
+      <c r="N64" s="53"/>
       <c r="O64" s="30"/>
       <c r="P64" s="45"/>
       <c r="Q64" s="32"/>
@@ -5936,7 +5934,7 @@
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
+      <c r="N65" s="53"/>
       <c r="O65" s="30"/>
       <c r="P65" s="45"/>
       <c r="Q65" s="32"/>
@@ -5950,29 +5948,30 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="61">
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U61:V61"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="U64:V64"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
     <mergeCell ref="U50:V50"/>
     <mergeCell ref="U51:V51"/>
     <mergeCell ref="U40:V40"/>
@@ -5987,30 +5986,29 @@
     <mergeCell ref="U37:V37"/>
     <mergeCell ref="U38:V38"/>
     <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U61:V61"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="U64:V64"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U49:V49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 Q10:T25 C6:N6 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 Q51:T65 U10:U65 P6:U6 P9:P65 O10:O25 H9:N65 Q9:Q11">

--- a/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
+++ b/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\总体管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604A2625-1BB9-488B-BCC2-AA10AC88BBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79216AD9-6661-4F01-8B2B-32DD94B5B6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
   <si>
     <t>*</t>
   </si>
@@ -454,11 +454,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【2019/11/26】
-已为客户提取香港店门头素材</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>154367
 114861
 154366</t>
@@ -467,6 +462,55 @@
   <si>
     <t>114878
 154127</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/26】
+已为客户提取武汉店F2素材</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郭文博</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>李琳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>故障对应</t>
+  </si>
+  <si>
+    <t>154118</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/11/28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>谭志明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/28】
+武汉店A1屏幕出现白屏</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/28】
+远程重启设备后正常播放，判断为长时间未断电设备过热引起</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刘琪</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -483,7 +527,7 @@
     <numFmt numFmtId="179" formatCode="m/d;@"/>
     <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="181" formatCode="0000\ "/>
-    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -919,6 +963,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="182" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -941,14 +993,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3399,11 +3443,11 @@
   <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12"/>
@@ -3489,7 +3533,7 @@
       </c>
       <c r="S2" s="15">
         <f>COUNTA(B6:B65)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T2" s="14" t="s">
         <v>1</v>
@@ -3534,7 +3578,7 @@
       <c r="S3" s="15">
         <f>COUNTIF(B:B,"确认
 完成")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T3" s="14" t="s">
         <v>2</v>
@@ -3650,10 +3694,10 @@
       <c r="T5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="48" t="s">
+      <c r="U5" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="49"/>
+      <c r="V5" s="51"/>
       <c r="W5" s="19" t="s">
         <v>0</v>
       </c>
@@ -3716,7 +3760,7 @@
       <c r="M6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="52">
+      <c r="N6" s="46">
         <v>1</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -3737,8 +3781,8 @@
       <c r="T6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="U6" s="50"/>
-      <c r="V6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="53"/>
       <c r="W6" s="16"/>
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
@@ -3789,7 +3833,7 @@
       <c r="M7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="52">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
       <c r="O7" s="41" t="s">
@@ -3810,8 +3854,8 @@
       <c r="T7" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="U7" s="50"/>
-      <c r="V7" s="51"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="53"/>
       <c r="W7" s="16"/>
       <c r="X7" s="21" t="s">
         <v>4</v>
@@ -3872,7 +3916,7 @@
       <c r="M8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N8" s="46">
         <v>1</v>
       </c>
       <c r="O8" s="41" t="s">
@@ -3893,8 +3937,8 @@
       <c r="T8" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="U8" s="50"/>
-      <c r="V8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
       <c r="W8" s="16"/>
       <c r="X8" s="20" t="s">
         <v>71</v>
@@ -3955,7 +3999,7 @@
       <c r="M9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="52">
+      <c r="N9" s="46">
         <v>1</v>
       </c>
       <c r="O9" s="41" t="s">
@@ -3976,8 +4020,8 @@
       <c r="T9" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="50"/>
-      <c r="V9" s="51"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="53"/>
       <c r="W9" s="16"/>
       <c r="X9" s="20" t="s">
         <v>69</v>
@@ -4021,7 +4065,7 @@
         <v>68</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>96</v>
@@ -4038,7 +4082,7 @@
       <c r="M10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="52">
+      <c r="N10" s="46">
         <v>1</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -4059,8 +4103,8 @@
       <c r="T10" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="U10" s="50"/>
-      <c r="V10" s="51"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="53"/>
       <c r="W10" s="16"/>
       <c r="X10" s="20" t="s">
         <v>70</v>
@@ -4079,63 +4123,69 @@
       <c r="AD10" s="23"/>
     </row>
     <row r="11" spans="1:30" s="2" customFormat="1" ht="36">
-      <c r="A11" s="27">
+      <c r="A11" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="46">
+        <v>1</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="53">
-        <v>1</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="R11" s="31"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="47"/>
+      <c r="R11" s="43">
+        <v>43795</v>
+      </c>
+      <c r="S11" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="U11" s="52"/>
+      <c r="V11" s="53"/>
       <c r="W11" s="16"/>
       <c r="X11" s="21" t="s">
         <v>5</v>
@@ -4151,32 +4201,70 @@
       <c r="AC11" s="23"/>
       <c r="AD11" s="23"/>
     </row>
-    <row r="12" spans="1:30" s="2" customFormat="1">
-      <c r="A12" s="27">
+    <row r="12" spans="1:30" s="2" customFormat="1" ht="36">
+      <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="47"/>
+      <c r="B12" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="46">
+        <v>1</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="R12" s="43">
+        <v>43797</v>
+      </c>
+      <c r="S12" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="T12" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="U12" s="52"/>
+      <c r="V12" s="53"/>
       <c r="W12" s="16"/>
       <c r="X12" s="21" t="s">
         <v>6</v>
@@ -4205,15 +4293,15 @@
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="53"/>
+      <c r="N13" s="47"/>
       <c r="O13" s="30"/>
       <c r="P13" s="45"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="31"/>
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="49"/>
       <c r="W13" s="16"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
@@ -4240,15 +4328,15 @@
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="53"/>
+      <c r="N14" s="47"/>
       <c r="O14" s="30"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="31"/>
       <c r="S14" s="30"/>
       <c r="T14" s="31"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="47"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49"/>
       <c r="W14" s="16"/>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
@@ -4275,15 +4363,15 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="53"/>
+      <c r="N15" s="47"/>
       <c r="O15" s="30"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="31"/>
       <c r="S15" s="30"/>
       <c r="T15" s="31"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="47"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="49"/>
       <c r="W15" s="16"/>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -4310,15 +4398,15 @@
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="53"/>
+      <c r="N16" s="47"/>
       <c r="O16" s="30"/>
       <c r="P16" s="45"/>
       <c r="Q16" s="32"/>
       <c r="R16" s="31"/>
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="47"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="49"/>
       <c r="W16" s="16"/>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
@@ -4345,15 +4433,15 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="53"/>
+      <c r="N17" s="47"/>
       <c r="O17" s="30"/>
       <c r="P17" s="45"/>
       <c r="Q17" s="32"/>
       <c r="R17" s="31"/>
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="47"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="49"/>
       <c r="W17" s="16"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
@@ -4380,15 +4468,15 @@
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="53"/>
+      <c r="N18" s="47"/>
       <c r="O18" s="30"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="32"/>
       <c r="R18" s="31"/>
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="47"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="49"/>
       <c r="W18" s="16"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
@@ -4415,15 +4503,15 @@
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
-      <c r="N19" s="53"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="30"/>
       <c r="P19" s="45"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="31"/>
       <c r="S19" s="30"/>
       <c r="T19" s="31"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="47"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="49"/>
       <c r="W19" s="16"/>
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
@@ -4450,15 +4538,15 @@
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="N20" s="53"/>
+      <c r="N20" s="47"/>
       <c r="O20" s="30"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="32"/>
       <c r="R20" s="31"/>
       <c r="S20" s="30"/>
       <c r="T20" s="31"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="47"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="49"/>
       <c r="W20" s="16"/>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
@@ -4485,15 +4573,15 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="53"/>
+      <c r="N21" s="47"/>
       <c r="O21" s="30"/>
       <c r="P21" s="45"/>
       <c r="Q21" s="32"/>
       <c r="R21" s="31"/>
       <c r="S21" s="30"/>
       <c r="T21" s="31"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="47"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="49"/>
       <c r="W21" s="16"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
@@ -4520,15 +4608,15 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="53"/>
+      <c r="N22" s="47"/>
       <c r="O22" s="30"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="31"/>
       <c r="S22" s="30"/>
       <c r="T22" s="31"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="47"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="49"/>
       <c r="W22" s="16"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
@@ -4555,15 +4643,15 @@
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="53"/>
+      <c r="N23" s="47"/>
       <c r="O23" s="30"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="32"/>
       <c r="R23" s="31"/>
       <c r="S23" s="30"/>
       <c r="T23" s="31"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="47"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="49"/>
       <c r="W23" s="16"/>
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
@@ -4590,15 +4678,15 @@
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
-      <c r="N24" s="53"/>
+      <c r="N24" s="47"/>
       <c r="O24" s="30"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="32"/>
       <c r="R24" s="31"/>
       <c r="S24" s="30"/>
       <c r="T24" s="31"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="47"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="49"/>
       <c r="W24" s="16"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
@@ -4625,15 +4713,15 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="53"/>
+      <c r="N25" s="47"/>
       <c r="O25" s="30"/>
       <c r="P25" s="45"/>
       <c r="Q25" s="32"/>
       <c r="R25" s="31"/>
       <c r="S25" s="30"/>
       <c r="T25" s="31"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="47"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="49"/>
       <c r="W25" s="16"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
@@ -4660,15 +4748,15 @@
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
-      <c r="N26" s="53"/>
+      <c r="N26" s="47"/>
       <c r="O26" s="30"/>
       <c r="P26" s="45"/>
       <c r="Q26" s="32"/>
       <c r="R26" s="31"/>
       <c r="S26" s="30"/>
       <c r="T26" s="31"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="47"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="49"/>
       <c r="W26" s="16"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -4695,15 +4783,15 @@
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
-      <c r="N27" s="53"/>
+      <c r="N27" s="47"/>
       <c r="O27" s="30"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="32"/>
       <c r="R27" s="31"/>
       <c r="S27" s="30"/>
       <c r="T27" s="31"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="47"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="49"/>
       <c r="W27" s="16"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
@@ -4730,15 +4818,15 @@
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
-      <c r="N28" s="53"/>
+      <c r="N28" s="47"/>
       <c r="O28" s="30"/>
       <c r="P28" s="45"/>
       <c r="Q28" s="32"/>
       <c r="R28" s="31"/>
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="47"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="49"/>
       <c r="W28" s="24"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -4765,15 +4853,15 @@
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="53"/>
+      <c r="N29" s="47"/>
       <c r="O29" s="30"/>
       <c r="P29" s="45"/>
       <c r="Q29" s="32"/>
       <c r="R29" s="31"/>
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="47"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="49"/>
       <c r="W29" s="24"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
@@ -4800,15 +4888,15 @@
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
-      <c r="N30" s="53"/>
+      <c r="N30" s="47"/>
       <c r="O30" s="30"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="32"/>
       <c r="R30" s="31"/>
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="47"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="49"/>
       <c r="W30" s="24"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -4835,15 +4923,15 @@
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
-      <c r="N31" s="53"/>
+      <c r="N31" s="47"/>
       <c r="O31" s="30"/>
       <c r="P31" s="45"/>
       <c r="Q31" s="32"/>
       <c r="R31" s="31"/>
       <c r="S31" s="30"/>
       <c r="T31" s="31"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="47"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="49"/>
       <c r="W31" s="24"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
@@ -4870,15 +4958,15 @@
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
-      <c r="N32" s="53"/>
+      <c r="N32" s="47"/>
       <c r="O32" s="30"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="32"/>
       <c r="R32" s="31"/>
       <c r="S32" s="30"/>
       <c r="T32" s="31"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="47"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="49"/>
       <c r="W32" s="24"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -4905,15 +4993,15 @@
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="53"/>
+      <c r="N33" s="47"/>
       <c r="O33" s="30"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="32"/>
       <c r="R33" s="31"/>
       <c r="S33" s="30"/>
       <c r="T33" s="31"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="47"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="49"/>
       <c r="W33" s="24"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
@@ -4940,15 +5028,15 @@
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
-      <c r="N34" s="53"/>
+      <c r="N34" s="47"/>
       <c r="O34" s="30"/>
       <c r="P34" s="45"/>
       <c r="Q34" s="32"/>
       <c r="R34" s="31"/>
       <c r="S34" s="30"/>
       <c r="T34" s="31"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="47"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="49"/>
       <c r="W34" s="24"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -4975,15 +5063,15 @@
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="53"/>
+      <c r="N35" s="47"/>
       <c r="O35" s="30"/>
       <c r="P35" s="45"/>
       <c r="Q35" s="32"/>
       <c r="R35" s="31"/>
       <c r="S35" s="30"/>
       <c r="T35" s="31"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="47"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="49"/>
       <c r="W35" s="24"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
@@ -5010,15 +5098,15 @@
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
-      <c r="N36" s="53"/>
+      <c r="N36" s="47"/>
       <c r="O36" s="30"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="32"/>
       <c r="R36" s="31"/>
       <c r="S36" s="30"/>
       <c r="T36" s="31"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="47"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="49"/>
       <c r="W36" s="24"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
@@ -5045,15 +5133,15 @@
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
-      <c r="N37" s="53"/>
+      <c r="N37" s="47"/>
       <c r="O37" s="30"/>
       <c r="P37" s="45"/>
       <c r="Q37" s="32"/>
       <c r="R37" s="31"/>
       <c r="S37" s="30"/>
       <c r="T37" s="31"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="47"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
       <c r="W37" s="24"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
@@ -5080,15 +5168,15 @@
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
-      <c r="N38" s="53"/>
+      <c r="N38" s="47"/>
       <c r="O38" s="30"/>
       <c r="P38" s="45"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="31"/>
       <c r="S38" s="30"/>
       <c r="T38" s="31"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="47"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="49"/>
       <c r="W38" s="24"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
@@ -5115,15 +5203,15 @@
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="53"/>
+      <c r="N39" s="47"/>
       <c r="O39" s="30"/>
       <c r="P39" s="45"/>
       <c r="Q39" s="32"/>
       <c r="R39" s="31"/>
       <c r="S39" s="30"/>
       <c r="T39" s="31"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="47"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="49"/>
       <c r="W39" s="24"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
@@ -5150,15 +5238,15 @@
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="53"/>
+      <c r="N40" s="47"/>
       <c r="O40" s="30"/>
       <c r="P40" s="45"/>
       <c r="Q40" s="32"/>
       <c r="R40" s="31"/>
       <c r="S40" s="30"/>
       <c r="T40" s="31"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="47"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="49"/>
       <c r="W40" s="24"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -5185,15 +5273,15 @@
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="53"/>
+      <c r="N41" s="47"/>
       <c r="O41" s="30"/>
       <c r="P41" s="45"/>
       <c r="Q41" s="32"/>
       <c r="R41" s="31"/>
       <c r="S41" s="30"/>
       <c r="T41" s="31"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="47"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="49"/>
       <c r="W41" s="24"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
@@ -5220,15 +5308,15 @@
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="53"/>
+      <c r="N42" s="47"/>
       <c r="O42" s="30"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="32"/>
       <c r="R42" s="31"/>
       <c r="S42" s="30"/>
       <c r="T42" s="31"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="47"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="49"/>
       <c r="W42" s="24"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
@@ -5255,15 +5343,15 @@
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
-      <c r="N43" s="53"/>
+      <c r="N43" s="47"/>
       <c r="O43" s="30"/>
       <c r="P43" s="45"/>
       <c r="Q43" s="32"/>
       <c r="R43" s="31"/>
       <c r="S43" s="30"/>
       <c r="T43" s="31"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="47"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="49"/>
       <c r="W43" s="24"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
@@ -5290,15 +5378,15 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="53"/>
+      <c r="N44" s="47"/>
       <c r="O44" s="30"/>
       <c r="P44" s="45"/>
       <c r="Q44" s="32"/>
       <c r="R44" s="31"/>
       <c r="S44" s="30"/>
       <c r="T44" s="31"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="47"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="49"/>
       <c r="W44" s="24"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
@@ -5325,15 +5413,15 @@
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
-      <c r="N45" s="53"/>
+      <c r="N45" s="47"/>
       <c r="O45" s="30"/>
       <c r="P45" s="45"/>
       <c r="Q45" s="32"/>
       <c r="R45" s="31"/>
       <c r="S45" s="30"/>
       <c r="T45" s="31"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="47"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="49"/>
       <c r="W45" s="24"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
@@ -5360,15 +5448,15 @@
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="53"/>
+      <c r="N46" s="47"/>
       <c r="O46" s="30"/>
       <c r="P46" s="45"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="31"/>
       <c r="S46" s="30"/>
       <c r="T46" s="31"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="47"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="49"/>
       <c r="W46" s="24"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
@@ -5395,15 +5483,15 @@
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="53"/>
+      <c r="N47" s="47"/>
       <c r="O47" s="30"/>
       <c r="P47" s="45"/>
       <c r="Q47" s="32"/>
       <c r="R47" s="31"/>
       <c r="S47" s="30"/>
       <c r="T47" s="31"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="47"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="49"/>
       <c r="W47" s="24"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
@@ -5430,15 +5518,15 @@
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
-      <c r="N48" s="53"/>
+      <c r="N48" s="47"/>
       <c r="O48" s="30"/>
       <c r="P48" s="45"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="31"/>
       <c r="S48" s="30"/>
       <c r="T48" s="31"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="47"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="49"/>
       <c r="W48" s="24"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
@@ -5465,15 +5553,15 @@
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="53"/>
+      <c r="N49" s="47"/>
       <c r="O49" s="30"/>
       <c r="P49" s="45"/>
       <c r="Q49" s="32"/>
       <c r="R49" s="31"/>
       <c r="S49" s="30"/>
       <c r="T49" s="31"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="47"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="49"/>
       <c r="W49" s="24"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
@@ -5500,15 +5588,15 @@
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="53"/>
+      <c r="N50" s="47"/>
       <c r="O50" s="30"/>
       <c r="P50" s="45"/>
       <c r="Q50" s="32"/>
       <c r="R50" s="31"/>
       <c r="S50" s="30"/>
       <c r="T50" s="31"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="47"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="49"/>
       <c r="W50" s="24"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
@@ -5535,15 +5623,15 @@
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="53"/>
+      <c r="N51" s="47"/>
       <c r="O51" s="30"/>
       <c r="P51" s="45"/>
       <c r="Q51" s="32"/>
       <c r="R51" s="31"/>
       <c r="S51" s="30"/>
       <c r="T51" s="31"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="47"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="49"/>
       <c r="W51" s="3"/>
     </row>
     <row r="52" spans="1:30">
@@ -5563,15 +5651,15 @@
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="53"/>
+      <c r="N52" s="47"/>
       <c r="O52" s="30"/>
       <c r="P52" s="45"/>
       <c r="Q52" s="32"/>
       <c r="R52" s="31"/>
       <c r="S52" s="30"/>
       <c r="T52" s="31"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="47"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="49"/>
       <c r="W52" s="3"/>
     </row>
     <row r="53" spans="1:30">
@@ -5591,15 +5679,15 @@
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="53"/>
+      <c r="N53" s="47"/>
       <c r="O53" s="30"/>
       <c r="P53" s="45"/>
       <c r="Q53" s="32"/>
       <c r="R53" s="31"/>
       <c r="S53" s="30"/>
       <c r="T53" s="31"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="47"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="49"/>
       <c r="W53" s="3"/>
     </row>
     <row r="54" spans="1:30">
@@ -5619,15 +5707,15 @@
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="53"/>
+      <c r="N54" s="47"/>
       <c r="O54" s="30"/>
       <c r="P54" s="45"/>
       <c r="Q54" s="32"/>
       <c r="R54" s="31"/>
       <c r="S54" s="30"/>
       <c r="T54" s="31"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="47"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="49"/>
       <c r="W54" s="3"/>
     </row>
     <row r="55" spans="1:30">
@@ -5647,15 +5735,15 @@
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
-      <c r="N55" s="53"/>
+      <c r="N55" s="47"/>
       <c r="O55" s="30"/>
       <c r="P55" s="45"/>
       <c r="Q55" s="32"/>
       <c r="R55" s="31"/>
       <c r="S55" s="30"/>
       <c r="T55" s="31"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="47"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="49"/>
       <c r="W55" s="3"/>
     </row>
     <row r="56" spans="1:30">
@@ -5675,15 +5763,15 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
-      <c r="N56" s="53"/>
+      <c r="N56" s="47"/>
       <c r="O56" s="30"/>
       <c r="P56" s="45"/>
       <c r="Q56" s="32"/>
       <c r="R56" s="31"/>
       <c r="S56" s="30"/>
       <c r="T56" s="31"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="47"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="49"/>
       <c r="W56" s="3"/>
       <c r="AD56" s="7"/>
     </row>
@@ -5704,15 +5792,15 @@
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
-      <c r="N57" s="53"/>
+      <c r="N57" s="47"/>
       <c r="O57" s="30"/>
       <c r="P57" s="45"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="31"/>
       <c r="S57" s="30"/>
       <c r="T57" s="31"/>
-      <c r="U57" s="46"/>
-      <c r="V57" s="47"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="49"/>
       <c r="W57" s="3"/>
       <c r="AD57" s="7"/>
     </row>
@@ -5733,15 +5821,15 @@
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="53"/>
+      <c r="N58" s="47"/>
       <c r="O58" s="30"/>
       <c r="P58" s="45"/>
       <c r="Q58" s="32"/>
       <c r="R58" s="31"/>
       <c r="S58" s="30"/>
       <c r="T58" s="31"/>
-      <c r="U58" s="46"/>
-      <c r="V58" s="47"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="49"/>
       <c r="W58" s="3"/>
       <c r="AD58" s="7"/>
     </row>
@@ -5762,15 +5850,15 @@
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
-      <c r="N59" s="53"/>
+      <c r="N59" s="47"/>
       <c r="O59" s="30"/>
       <c r="P59" s="45"/>
       <c r="Q59" s="32"/>
       <c r="R59" s="31"/>
       <c r="S59" s="30"/>
       <c r="T59" s="31"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="47"/>
+      <c r="U59" s="48"/>
+      <c r="V59" s="49"/>
       <c r="W59" s="3"/>
       <c r="AD59" s="7"/>
     </row>
@@ -5791,15 +5879,15 @@
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
-      <c r="N60" s="53"/>
+      <c r="N60" s="47"/>
       <c r="O60" s="30"/>
       <c r="P60" s="45"/>
       <c r="Q60" s="32"/>
       <c r="R60" s="31"/>
       <c r="S60" s="30"/>
       <c r="T60" s="31"/>
-      <c r="U60" s="46"/>
-      <c r="V60" s="47"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="49"/>
       <c r="W60" s="3"/>
       <c r="AD60" s="7"/>
     </row>
@@ -5820,15 +5908,15 @@
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
-      <c r="N61" s="53"/>
+      <c r="N61" s="47"/>
       <c r="O61" s="30"/>
       <c r="P61" s="45"/>
       <c r="Q61" s="32"/>
       <c r="R61" s="31"/>
       <c r="S61" s="30"/>
       <c r="T61" s="31"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="47"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="49"/>
       <c r="W61" s="3"/>
       <c r="AD61" s="7"/>
     </row>
@@ -5849,15 +5937,15 @@
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="53"/>
+      <c r="N62" s="47"/>
       <c r="O62" s="30"/>
       <c r="P62" s="45"/>
       <c r="Q62" s="32"/>
       <c r="R62" s="31"/>
       <c r="S62" s="30"/>
       <c r="T62" s="31"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="47"/>
+      <c r="U62" s="48"/>
+      <c r="V62" s="49"/>
       <c r="W62" s="3"/>
       <c r="AD62" s="7"/>
     </row>
@@ -5878,15 +5966,15 @@
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="53"/>
+      <c r="N63" s="47"/>
       <c r="O63" s="30"/>
       <c r="P63" s="45"/>
       <c r="Q63" s="32"/>
       <c r="R63" s="31"/>
       <c r="S63" s="30"/>
       <c r="T63" s="31"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="47"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="49"/>
       <c r="AD63" s="7"/>
     </row>
     <row r="64" spans="1:30">
@@ -5906,15 +5994,15 @@
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="53"/>
+      <c r="N64" s="47"/>
       <c r="O64" s="30"/>
       <c r="P64" s="45"/>
       <c r="Q64" s="32"/>
       <c r="R64" s="31"/>
       <c r="S64" s="30"/>
       <c r="T64" s="31"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="47"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="49"/>
       <c r="AD64" s="7"/>
     </row>
     <row r="65" spans="1:30">
@@ -5934,65 +6022,20 @@
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="53"/>
+      <c r="N65" s="47"/>
       <c r="O65" s="30"/>
       <c r="P65" s="45"/>
       <c r="Q65" s="32"/>
       <c r="R65" s="31"/>
       <c r="S65" s="30"/>
       <c r="T65" s="31"/>
-      <c r="U65" s="46"/>
-      <c r="V65" s="47"/>
+      <c r="U65" s="48"/>
+      <c r="V65" s="49"/>
       <c r="AD65" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="61">
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U61:V61"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="U64:V64"/>
     <mergeCell ref="U58:V58"/>
     <mergeCell ref="U52:V52"/>
     <mergeCell ref="U41:V41"/>
@@ -6009,9 +6052,54 @@
     <mergeCell ref="U47:V47"/>
     <mergeCell ref="U48:V48"/>
     <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U61:V61"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="U64:V64"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U7:V7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 Q10:T25 C6:N6 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 Q51:T65 U10:U65 P6:U6 P9:P65 O10:O25 H9:N65 Q9:Q11">
+  <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 C6:N6 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 Q51:T65 U10:U65 P6:U6 P9:P65 O10:O25 H9:N65 Q9:Q12 Q10:T25">
     <cfRule type="expression" dxfId="92" priority="433">
       <formula>$B6="暂停"</formula>
     </cfRule>

--- a/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
+++ b/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\总体管理\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79216AD9-6661-4F01-8B2B-32DD94B5B6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="课题管理表" sheetId="2" r:id="rId1"/>
@@ -27,7 +21,7 @@
     <definedName name="Z_ECA4C4B1_6CF3_4CD3_B966_EAC9F90B228C_.wvu.FilterData" localSheetId="0" hidden="1">课题管理表!$A$5:$U$5</definedName>
     <definedName name="Z_ECA4C4B1_6CF3_4CD3_B966_EAC9F90B228C_.wvu.PrintTitles" localSheetId="0" hidden="1">课题管理表!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>*</t>
   </si>
@@ -49,9 +43,6 @@
   </si>
   <si>
     <t>更新日</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>提出</t>
@@ -86,9 +77,6 @@
   </si>
   <si>
     <t>内容发布</t>
-  </si>
-  <si>
-    <t>内容发布</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -112,34 +100,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>China</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SH SOGO</t>
-  </si>
-  <si>
-    <t>SH SOGO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>87358</t>
-  </si>
-  <si>
-    <t>87358</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Expected Date</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -252,9 +212,6 @@
   </si>
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>T</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -270,45 +227,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2019/09/29</t>
-  </si>
-  <si>
-    <t>2019/09/29</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【2019/09/29】
-新内容投放
-链接：https://pan.baidu.com/s/1eJ54YdNiHG6OfrSKodfisw
-提取码：a5po
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【2019/09/29】
-设备切换完成，网络确认完成，新内容已投放</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>李琳</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>郭文博</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Comments</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0020019498</t>
-  </si>
-  <si>
-    <t>0020028831</t>
-  </si>
-  <si>
-    <t>Wuhan</t>
   </si>
   <si>
     <t>处理
@@ -341,183 +261,60 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2019/10/16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【2019/10/17】
-新内容投放
-链接：https://pan.baidu.com/s/1V_rE3DT3_1lekPFHecB5Hw 
-提取码：6apj
-</t>
-  </si>
-  <si>
-    <t>【2019/10/17】
-网络确认完成，新内容已投放</t>
-  </si>
-  <si>
-    <t>2019/10/17</t>
-  </si>
-  <si>
-    <t>李琳</t>
-  </si>
-  <si>
-    <t>郭文博</t>
-  </si>
-  <si>
-    <t>WUHAN BEACON STREET</t>
-  </si>
-  <si>
-    <t>156086
-155994
-156075</t>
-  </si>
-  <si>
-    <t>2019/10/21</t>
-  </si>
-  <si>
-    <t>2019/10/22</t>
-  </si>
-  <si>
-    <t>MAX-PLUS</t>
-  </si>
-  <si>
-    <t>【2019/10/21】
-新内容投放
-链接：https://urldefense.proofpoint.com/v2/url?u=https-3A__wetransfer.com_downloads_e913a5839e5ccd063ba98c944b2a88ee20191020155425_8d127a4c4df3aef18ed9803fbd4eccc820191020155425_b4f615&amp;d=DwMFaQ&amp;c=yCitMa_Rl8ia06dt8C2gQscQgHRrUUjapbGBwmCpNec&amp;r=F3K0dqWbxS9f7De6solcCA&amp;m=b-zWXFDDfjGyFslpOmneN2ZjSIp0_Djod5JQfOsUnY4&amp;s=BzXCGIGI5DnkpOrJf_DdVHWDxTwDtkbc_RQiIlG8_eI&amp;e=</t>
-  </si>
-  <si>
-    <t>【2019/10/22】
-网络确认完成，新内容已投放</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【2019/10/31】
-新内容投放
-链接：https://pan.baidu.com/s/1ajG-m6iJwY5zUZSQlx3M5A&amp;shfl=sharepset 
-提取码：80oi 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【2019/11/01】
-追加投放内容
-链接：https://pan.baidu.com/s/1yFZGtjNCZSnff0Domx2nEQ
-提取码：7hua
-（仅播放有分割线的视频，另一个不投放）
-网络确认完成，新内容已投
-</t>
-  </si>
-  <si>
-    <t>任秋凤</t>
-  </si>
-  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>【2019/11/25】
-为客户提取武汉店F2素材</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>运营执行</t>
   </si>
   <si>
     <t>运营执行</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2019/11/25</t>
+    <t>故障对应</t>
+  </si>
+  <si>
+    <t>0020025975</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>门店长</t>
+    <t>BeiJing Solana</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>辛红</t>
+    <t>门店</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Kris</t>
+    <t>2019/12/10 晚九点左右
+门店反应门头LED黑屏，希望于12/11内解决</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2019/11/21</t>
+    <t>CHN</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【2019/11/21】
-为客户提取香港店门头素材</t>
+    <t>Beijing</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【2019/11/22】
-已为客户提取香港店门头素材</t>
+    <t>A1-A3</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>154367
-114861
-154366</t>
+    <t>12/10</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>114878
-154127</t>
+    <t>12/11</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【2019/11/26】
-已为客户提取武汉店F2素材</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>郭文博</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>李琳</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>故障对应</t>
-  </si>
-  <si>
-    <t>154118</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2019/11/28</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>谭志明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【2019/11/28】
-武汉店A1屏幕出现白屏</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【2019/11/28】
-远程重启设备后正常播放，判断为长时间未断电设备过热引起</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>刘琪</t>
-    <phoneticPr fontId="2"/>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -704,7 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +598,7 @@
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,40 +728,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="182" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -987,6 +752,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="181" fontId="16" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -995,20 +792,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Grey" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Input [yellow]" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal - Style1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Percent [2]" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="センター" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準_☆課題一覧_20070209" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_08 課題管理一覧表" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="桁蟻唇Ｆ [0.00]_Sheet1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="桁蟻唇Ｆ_Sheet1" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="脱浦 [0.00]_laroux" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="脱浦_laroux" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Grey" xfId="1"/>
+    <cellStyle name="Input [yellow]" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal - Style1" xfId="3"/>
+    <cellStyle name="Percent [2]" xfId="4"/>
+    <cellStyle name="センター" xfId="5"/>
+    <cellStyle name="標準_☆課題一覧_20070209" xfId="6"/>
+    <cellStyle name="常规_08 課題管理一覧表" xfId="7"/>
+    <cellStyle name="桁蟻唇Ｆ [0.00]_Sheet1" xfId="8"/>
+    <cellStyle name="桁蟻唇Ｆ_Sheet1" xfId="9"/>
+    <cellStyle name="脱浦 [0.00]_laroux" xfId="10"/>
+    <cellStyle name="脱浦_laroux" xfId="11"/>
   </cellStyles>
   <dxfs count="93">
     <dxf>
@@ -1695,7 +1496,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1576,7 @@
         <xdr:cNvPr id="3" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +1942,7 @@
         <xdr:cNvPr id="4" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343A9AC4-E784-47A7-BA3D-1DA1019FEE06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{343A9AC4-E784-47A7-BA3D-1DA1019FEE06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2611,7 @@
         <xdr:cNvPr id="5" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70150453-96F1-4BB0-95D7-E157DF2D1E5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70150453-96F1-4BB0-95D7-E157DF2D1E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,18 +3237,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12"/>
@@ -3529,11 +3330,11 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="S2" s="15">
         <f>COUNTA(B6:B65)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T2" s="14" t="s">
         <v>1</v>
@@ -3573,12 +3374,12 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="S3" s="15">
         <f>COUNTIF(B:B,"确认
 完成")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T3" s="14" t="s">
         <v>2</v>
@@ -3635,152 +3436,144 @@
     </row>
     <row r="5" spans="1:30" s="1" customFormat="1" ht="26.4">
       <c r="A5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="34" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E5" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="33" t="s">
+      <c r="J5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="33" t="s">
+      <c r="K5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="V5" s="51"/>
+      <c r="U5" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="43"/>
       <c r="W5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y5" s="21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="Z5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB5" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="AC5" s="21"/>
       <c r="AD5" s="21"/>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="84">
-      <c r="A6" s="38">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="24">
+      <c r="A6" s="44">
         <f t="shared" ref="A6:A65" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="40" t="s">
+      <c r="B6" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="46">
+      <c r="H6" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="47">
         <v>1</v>
       </c>
-      <c r="O6" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="P6" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="T6" s="43" t="s">
-        <v>64</v>
-      </c>
+      <c r="O6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
       <c r="W6" s="16"/>
@@ -3792,482 +3585,254 @@
       <c r="AC6" s="23"/>
       <c r="AD6" s="23"/>
     </row>
-    <row r="7" spans="1:30" s="2" customFormat="1" ht="84">
-      <c r="A7" s="38">
+    <row r="7" spans="1:30" s="2" customFormat="1">
+      <c r="A7" s="44">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="46">
-        <v>1</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="S7" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="T7" s="41" t="s">
-        <v>77</v>
-      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
       <c r="U7" s="52"/>
       <c r="V7" s="53"/>
       <c r="W7" s="16"/>
       <c r="X7" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z7" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AA7" s="22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB7" s="22" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AC7" s="23"/>
       <c r="AD7" s="23"/>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" ht="156">
-      <c r="A8" s="38">
+    <row r="8" spans="1:30" s="2" customFormat="1" ht="24">
+      <c r="A8" s="44">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="46">
-        <v>1</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="40">
-        <v>43760</v>
-      </c>
-      <c r="S8" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" s="43" t="s">
-        <v>77</v>
-      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="51"/>
       <c r="U8" s="52"/>
       <c r="V8" s="53"/>
       <c r="W8" s="16"/>
       <c r="X8" s="20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AA8" s="22" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AC8" s="23"/>
       <c r="AD8" s="23"/>
     </row>
-    <row r="9" spans="1:30" s="2" customFormat="1" ht="108">
-      <c r="A9" s="38">
+    <row r="9" spans="1:30" s="2" customFormat="1" ht="24">
+      <c r="A9" s="44">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="46">
-        <v>1</v>
-      </c>
-      <c r="O9" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q9" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="R9" s="43">
-        <v>43770</v>
-      </c>
-      <c r="S9" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="T9" s="41" t="s">
-        <v>77</v>
-      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
       <c r="U9" s="52"/>
       <c r="V9" s="53"/>
       <c r="W9" s="16"/>
       <c r="X9" s="20" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="22" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AB9" s="22" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AC9" s="23"/>
       <c r="AD9" s="23"/>
     </row>
-    <row r="10" spans="1:30" s="2" customFormat="1" ht="36">
-      <c r="A10" s="38">
+    <row r="10" spans="1:30" s="2" customFormat="1" ht="24">
+      <c r="A10" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="46">
-        <v>1</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q10" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" s="43">
-        <v>43791</v>
-      </c>
-      <c r="S10" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="T10" s="43" t="s">
-        <v>77</v>
-      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="51"/>
       <c r="U10" s="52"/>
       <c r="V10" s="53"/>
       <c r="W10" s="16"/>
       <c r="X10" s="20" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AA10" s="22" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AB10" s="22"/>
       <c r="AC10" s="23"/>
       <c r="AD10" s="23"/>
     </row>
-    <row r="11" spans="1:30" s="2" customFormat="1" ht="36">
-      <c r="A11" s="38">
+    <row r="11" spans="1:30" s="2" customFormat="1">
+      <c r="A11" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="46">
-        <v>1</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="R11" s="43">
-        <v>43795</v>
-      </c>
-      <c r="S11" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="T11" s="43" t="s">
-        <v>102</v>
-      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="51"/>
       <c r="U11" s="52"/>
       <c r="V11" s="53"/>
       <c r="W11" s="16"/>
       <c r="X11" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="21" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="Z11" s="21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AA11" s="22"/>
       <c r="AB11" s="22"/>
       <c r="AC11" s="23"/>
       <c r="AD11" s="23"/>
     </row>
-    <row r="12" spans="1:30" s="2" customFormat="1" ht="36">
-      <c r="A12" s="38">
+    <row r="12" spans="1:30" s="2" customFormat="1">
+      <c r="A12" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="46">
-        <v>1</v>
-      </c>
-      <c r="O12" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="P12" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q12" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="R12" s="43">
-        <v>43797</v>
-      </c>
-      <c r="S12" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="T12" s="43" t="s">
-        <v>102</v>
-      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="51"/>
       <c r="U12" s="52"/>
       <c r="V12" s="53"/>
       <c r="W12" s="16"/>
       <c r="X12" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
@@ -4293,15 +3858,15 @@
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="47"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="30"/>
-      <c r="P13" s="45"/>
+      <c r="P13" s="38"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="31"/>
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="49"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="41"/>
       <c r="W13" s="16"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
@@ -4328,15 +3893,15 @@
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="47"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="30"/>
-      <c r="P14" s="45"/>
+      <c r="P14" s="38"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="31"/>
       <c r="S14" s="30"/>
       <c r="T14" s="31"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="49"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="41"/>
       <c r="W14" s="16"/>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
@@ -4363,15 +3928,15 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="47"/>
+      <c r="N15" s="39"/>
       <c r="O15" s="30"/>
-      <c r="P15" s="45"/>
+      <c r="P15" s="38"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="31"/>
       <c r="S15" s="30"/>
       <c r="T15" s="31"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="49"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="41"/>
       <c r="W15" s="16"/>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -4398,15 +3963,15 @@
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="47"/>
+      <c r="N16" s="39"/>
       <c r="O16" s="30"/>
-      <c r="P16" s="45"/>
+      <c r="P16" s="38"/>
       <c r="Q16" s="32"/>
       <c r="R16" s="31"/>
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="49"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="41"/>
       <c r="W16" s="16"/>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
@@ -4433,15 +3998,15 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="47"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="30"/>
-      <c r="P17" s="45"/>
+      <c r="P17" s="38"/>
       <c r="Q17" s="32"/>
       <c r="R17" s="31"/>
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="49"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="41"/>
       <c r="W17" s="16"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
@@ -4468,15 +4033,15 @@
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="47"/>
+      <c r="N18" s="39"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="45"/>
+      <c r="P18" s="38"/>
       <c r="Q18" s="32"/>
       <c r="R18" s="31"/>
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="49"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="41"/>
       <c r="W18" s="16"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
@@ -4503,15 +4068,15 @@
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="39"/>
       <c r="O19" s="30"/>
-      <c r="P19" s="45"/>
+      <c r="P19" s="38"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="31"/>
       <c r="S19" s="30"/>
       <c r="T19" s="31"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="49"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="41"/>
       <c r="W19" s="16"/>
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
@@ -4538,15 +4103,15 @@
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="N20" s="47"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="30"/>
-      <c r="P20" s="45"/>
+      <c r="P20" s="38"/>
       <c r="Q20" s="32"/>
       <c r="R20" s="31"/>
       <c r="S20" s="30"/>
       <c r="T20" s="31"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="49"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="41"/>
       <c r="W20" s="16"/>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
@@ -4573,15 +4138,15 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="47"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="30"/>
-      <c r="P21" s="45"/>
+      <c r="P21" s="38"/>
       <c r="Q21" s="32"/>
       <c r="R21" s="31"/>
       <c r="S21" s="30"/>
       <c r="T21" s="31"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="49"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="41"/>
       <c r="W21" s="16"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
@@ -4608,15 +4173,15 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="47"/>
+      <c r="N22" s="39"/>
       <c r="O22" s="30"/>
-      <c r="P22" s="45"/>
+      <c r="P22" s="38"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="31"/>
       <c r="S22" s="30"/>
       <c r="T22" s="31"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="49"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="41"/>
       <c r="W22" s="16"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
@@ -4643,15 +4208,15 @@
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="47"/>
+      <c r="N23" s="39"/>
       <c r="O23" s="30"/>
-      <c r="P23" s="45"/>
+      <c r="P23" s="38"/>
       <c r="Q23" s="32"/>
       <c r="R23" s="31"/>
       <c r="S23" s="30"/>
       <c r="T23" s="31"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="49"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="41"/>
       <c r="W23" s="16"/>
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
@@ -4678,15 +4243,15 @@
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
-      <c r="N24" s="47"/>
+      <c r="N24" s="39"/>
       <c r="O24" s="30"/>
-      <c r="P24" s="45"/>
+      <c r="P24" s="38"/>
       <c r="Q24" s="32"/>
       <c r="R24" s="31"/>
       <c r="S24" s="30"/>
       <c r="T24" s="31"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="49"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="41"/>
       <c r="W24" s="16"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
@@ -4713,15 +4278,15 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="47"/>
+      <c r="N25" s="39"/>
       <c r="O25" s="30"/>
-      <c r="P25" s="45"/>
+      <c r="P25" s="38"/>
       <c r="Q25" s="32"/>
       <c r="R25" s="31"/>
       <c r="S25" s="30"/>
       <c r="T25" s="31"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="49"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="41"/>
       <c r="W25" s="16"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
@@ -4748,15 +4313,15 @@
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
-      <c r="N26" s="47"/>
+      <c r="N26" s="39"/>
       <c r="O26" s="30"/>
-      <c r="P26" s="45"/>
+      <c r="P26" s="38"/>
       <c r="Q26" s="32"/>
       <c r="R26" s="31"/>
       <c r="S26" s="30"/>
       <c r="T26" s="31"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="49"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="41"/>
       <c r="W26" s="16"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -4783,15 +4348,15 @@
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
-      <c r="N27" s="47"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="30"/>
-      <c r="P27" s="45"/>
+      <c r="P27" s="38"/>
       <c r="Q27" s="32"/>
       <c r="R27" s="31"/>
       <c r="S27" s="30"/>
       <c r="T27" s="31"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="49"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="41"/>
       <c r="W27" s="16"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
@@ -4818,15 +4383,15 @@
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
-      <c r="N28" s="47"/>
+      <c r="N28" s="39"/>
       <c r="O28" s="30"/>
-      <c r="P28" s="45"/>
+      <c r="P28" s="38"/>
       <c r="Q28" s="32"/>
       <c r="R28" s="31"/>
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="49"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="41"/>
       <c r="W28" s="24"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -4853,15 +4418,15 @@
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="47"/>
+      <c r="N29" s="39"/>
       <c r="O29" s="30"/>
-      <c r="P29" s="45"/>
+      <c r="P29" s="38"/>
       <c r="Q29" s="32"/>
       <c r="R29" s="31"/>
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="49"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="41"/>
       <c r="W29" s="24"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
@@ -4888,15 +4453,15 @@
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
-      <c r="N30" s="47"/>
+      <c r="N30" s="39"/>
       <c r="O30" s="30"/>
-      <c r="P30" s="45"/>
+      <c r="P30" s="38"/>
       <c r="Q30" s="32"/>
       <c r="R30" s="31"/>
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="49"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="41"/>
       <c r="W30" s="24"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -4923,15 +4488,15 @@
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
-      <c r="N31" s="47"/>
+      <c r="N31" s="39"/>
       <c r="O31" s="30"/>
-      <c r="P31" s="45"/>
+      <c r="P31" s="38"/>
       <c r="Q31" s="32"/>
       <c r="R31" s="31"/>
       <c r="S31" s="30"/>
       <c r="T31" s="31"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="49"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="41"/>
       <c r="W31" s="24"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
@@ -4958,15 +4523,15 @@
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
-      <c r="N32" s="47"/>
+      <c r="N32" s="39"/>
       <c r="O32" s="30"/>
-      <c r="P32" s="45"/>
+      <c r="P32" s="38"/>
       <c r="Q32" s="32"/>
       <c r="R32" s="31"/>
       <c r="S32" s="30"/>
       <c r="T32" s="31"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="49"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="41"/>
       <c r="W32" s="24"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -4993,15 +4558,15 @@
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="47"/>
+      <c r="N33" s="39"/>
       <c r="O33" s="30"/>
-      <c r="P33" s="45"/>
+      <c r="P33" s="38"/>
       <c r="Q33" s="32"/>
       <c r="R33" s="31"/>
       <c r="S33" s="30"/>
       <c r="T33" s="31"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="49"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="41"/>
       <c r="W33" s="24"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
@@ -5028,15 +4593,15 @@
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
-      <c r="N34" s="47"/>
+      <c r="N34" s="39"/>
       <c r="O34" s="30"/>
-      <c r="P34" s="45"/>
+      <c r="P34" s="38"/>
       <c r="Q34" s="32"/>
       <c r="R34" s="31"/>
       <c r="S34" s="30"/>
       <c r="T34" s="31"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="49"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="41"/>
       <c r="W34" s="24"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -5063,15 +4628,15 @@
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="47"/>
+      <c r="N35" s="39"/>
       <c r="O35" s="30"/>
-      <c r="P35" s="45"/>
+      <c r="P35" s="38"/>
       <c r="Q35" s="32"/>
       <c r="R35" s="31"/>
       <c r="S35" s="30"/>
       <c r="T35" s="31"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="49"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="41"/>
       <c r="W35" s="24"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
@@ -5098,15 +4663,15 @@
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
-      <c r="N36" s="47"/>
+      <c r="N36" s="39"/>
       <c r="O36" s="30"/>
-      <c r="P36" s="45"/>
+      <c r="P36" s="38"/>
       <c r="Q36" s="32"/>
       <c r="R36" s="31"/>
       <c r="S36" s="30"/>
       <c r="T36" s="31"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="49"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="41"/>
       <c r="W36" s="24"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
@@ -5133,15 +4698,15 @@
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
-      <c r="N37" s="47"/>
+      <c r="N37" s="39"/>
       <c r="O37" s="30"/>
-      <c r="P37" s="45"/>
+      <c r="P37" s="38"/>
       <c r="Q37" s="32"/>
       <c r="R37" s="31"/>
       <c r="S37" s="30"/>
       <c r="T37" s="31"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="41"/>
       <c r="W37" s="24"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
@@ -5168,15 +4733,15 @@
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
-      <c r="N38" s="47"/>
+      <c r="N38" s="39"/>
       <c r="O38" s="30"/>
-      <c r="P38" s="45"/>
+      <c r="P38" s="38"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="31"/>
       <c r="S38" s="30"/>
       <c r="T38" s="31"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="49"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="41"/>
       <c r="W38" s="24"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
@@ -5203,15 +4768,15 @@
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="47"/>
+      <c r="N39" s="39"/>
       <c r="O39" s="30"/>
-      <c r="P39" s="45"/>
+      <c r="P39" s="38"/>
       <c r="Q39" s="32"/>
       <c r="R39" s="31"/>
       <c r="S39" s="30"/>
       <c r="T39" s="31"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="49"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="41"/>
       <c r="W39" s="24"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
@@ -5238,15 +4803,15 @@
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="47"/>
+      <c r="N40" s="39"/>
       <c r="O40" s="30"/>
-      <c r="P40" s="45"/>
+      <c r="P40" s="38"/>
       <c r="Q40" s="32"/>
       <c r="R40" s="31"/>
       <c r="S40" s="30"/>
       <c r="T40" s="31"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="49"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="41"/>
       <c r="W40" s="24"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -5273,15 +4838,15 @@
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="47"/>
+      <c r="N41" s="39"/>
       <c r="O41" s="30"/>
-      <c r="P41" s="45"/>
+      <c r="P41" s="38"/>
       <c r="Q41" s="32"/>
       <c r="R41" s="31"/>
       <c r="S41" s="30"/>
       <c r="T41" s="31"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="49"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="41"/>
       <c r="W41" s="24"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
@@ -5308,15 +4873,15 @@
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="47"/>
+      <c r="N42" s="39"/>
       <c r="O42" s="30"/>
-      <c r="P42" s="45"/>
+      <c r="P42" s="38"/>
       <c r="Q42" s="32"/>
       <c r="R42" s="31"/>
       <c r="S42" s="30"/>
       <c r="T42" s="31"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="49"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="41"/>
       <c r="W42" s="24"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
@@ -5343,15 +4908,15 @@
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
-      <c r="N43" s="47"/>
+      <c r="N43" s="39"/>
       <c r="O43" s="30"/>
-      <c r="P43" s="45"/>
+      <c r="P43" s="38"/>
       <c r="Q43" s="32"/>
       <c r="R43" s="31"/>
       <c r="S43" s="30"/>
       <c r="T43" s="31"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="49"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="41"/>
       <c r="W43" s="24"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
@@ -5378,15 +4943,15 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="47"/>
+      <c r="N44" s="39"/>
       <c r="O44" s="30"/>
-      <c r="P44" s="45"/>
+      <c r="P44" s="38"/>
       <c r="Q44" s="32"/>
       <c r="R44" s="31"/>
       <c r="S44" s="30"/>
       <c r="T44" s="31"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="49"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="41"/>
       <c r="W44" s="24"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
@@ -5413,15 +4978,15 @@
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
-      <c r="N45" s="47"/>
+      <c r="N45" s="39"/>
       <c r="O45" s="30"/>
-      <c r="P45" s="45"/>
+      <c r="P45" s="38"/>
       <c r="Q45" s="32"/>
       <c r="R45" s="31"/>
       <c r="S45" s="30"/>
       <c r="T45" s="31"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="49"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="41"/>
       <c r="W45" s="24"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
@@ -5448,15 +5013,15 @@
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="47"/>
+      <c r="N46" s="39"/>
       <c r="O46" s="30"/>
-      <c r="P46" s="45"/>
+      <c r="P46" s="38"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="31"/>
       <c r="S46" s="30"/>
       <c r="T46" s="31"/>
-      <c r="U46" s="48"/>
-      <c r="V46" s="49"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="41"/>
       <c r="W46" s="24"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
@@ -5483,15 +5048,15 @@
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="47"/>
+      <c r="N47" s="39"/>
       <c r="O47" s="30"/>
-      <c r="P47" s="45"/>
+      <c r="P47" s="38"/>
       <c r="Q47" s="32"/>
       <c r="R47" s="31"/>
       <c r="S47" s="30"/>
       <c r="T47" s="31"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="49"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="41"/>
       <c r="W47" s="24"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
@@ -5518,15 +5083,15 @@
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
-      <c r="N48" s="47"/>
+      <c r="N48" s="39"/>
       <c r="O48" s="30"/>
-      <c r="P48" s="45"/>
+      <c r="P48" s="38"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="31"/>
       <c r="S48" s="30"/>
       <c r="T48" s="31"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="49"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="41"/>
       <c r="W48" s="24"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
@@ -5553,15 +5118,15 @@
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="47"/>
+      <c r="N49" s="39"/>
       <c r="O49" s="30"/>
-      <c r="P49" s="45"/>
+      <c r="P49" s="38"/>
       <c r="Q49" s="32"/>
       <c r="R49" s="31"/>
       <c r="S49" s="30"/>
       <c r="T49" s="31"/>
-      <c r="U49" s="48"/>
-      <c r="V49" s="49"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="41"/>
       <c r="W49" s="24"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
@@ -5588,15 +5153,15 @@
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="47"/>
+      <c r="N50" s="39"/>
       <c r="O50" s="30"/>
-      <c r="P50" s="45"/>
+      <c r="P50" s="38"/>
       <c r="Q50" s="32"/>
       <c r="R50" s="31"/>
       <c r="S50" s="30"/>
       <c r="T50" s="31"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="49"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="41"/>
       <c r="W50" s="24"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
@@ -5623,15 +5188,15 @@
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="47"/>
+      <c r="N51" s="39"/>
       <c r="O51" s="30"/>
-      <c r="P51" s="45"/>
+      <c r="P51" s="38"/>
       <c r="Q51" s="32"/>
       <c r="R51" s="31"/>
       <c r="S51" s="30"/>
       <c r="T51" s="31"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="49"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="41"/>
       <c r="W51" s="3"/>
     </row>
     <row r="52" spans="1:30">
@@ -5651,15 +5216,15 @@
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="47"/>
+      <c r="N52" s="39"/>
       <c r="O52" s="30"/>
-      <c r="P52" s="45"/>
+      <c r="P52" s="38"/>
       <c r="Q52" s="32"/>
       <c r="R52" s="31"/>
       <c r="S52" s="30"/>
       <c r="T52" s="31"/>
-      <c r="U52" s="48"/>
-      <c r="V52" s="49"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="41"/>
       <c r="W52" s="3"/>
     </row>
     <row r="53" spans="1:30">
@@ -5679,15 +5244,15 @@
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="47"/>
+      <c r="N53" s="39"/>
       <c r="O53" s="30"/>
-      <c r="P53" s="45"/>
+      <c r="P53" s="38"/>
       <c r="Q53" s="32"/>
       <c r="R53" s="31"/>
       <c r="S53" s="30"/>
       <c r="T53" s="31"/>
-      <c r="U53" s="48"/>
-      <c r="V53" s="49"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="41"/>
       <c r="W53" s="3"/>
     </row>
     <row r="54" spans="1:30">
@@ -5707,15 +5272,15 @@
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="47"/>
+      <c r="N54" s="39"/>
       <c r="O54" s="30"/>
-      <c r="P54" s="45"/>
+      <c r="P54" s="38"/>
       <c r="Q54" s="32"/>
       <c r="R54" s="31"/>
       <c r="S54" s="30"/>
       <c r="T54" s="31"/>
-      <c r="U54" s="48"/>
-      <c r="V54" s="49"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="41"/>
       <c r="W54" s="3"/>
     </row>
     <row r="55" spans="1:30">
@@ -5735,15 +5300,15 @@
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
-      <c r="N55" s="47"/>
+      <c r="N55" s="39"/>
       <c r="O55" s="30"/>
-      <c r="P55" s="45"/>
+      <c r="P55" s="38"/>
       <c r="Q55" s="32"/>
       <c r="R55" s="31"/>
       <c r="S55" s="30"/>
       <c r="T55" s="31"/>
-      <c r="U55" s="48"/>
-      <c r="V55" s="49"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="41"/>
       <c r="W55" s="3"/>
     </row>
     <row r="56" spans="1:30">
@@ -5763,15 +5328,15 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
-      <c r="N56" s="47"/>
+      <c r="N56" s="39"/>
       <c r="O56" s="30"/>
-      <c r="P56" s="45"/>
+      <c r="P56" s="38"/>
       <c r="Q56" s="32"/>
       <c r="R56" s="31"/>
       <c r="S56" s="30"/>
       <c r="T56" s="31"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="49"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="41"/>
       <c r="W56" s="3"/>
       <c r="AD56" s="7"/>
     </row>
@@ -5792,15 +5357,15 @@
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
-      <c r="N57" s="47"/>
+      <c r="N57" s="39"/>
       <c r="O57" s="30"/>
-      <c r="P57" s="45"/>
+      <c r="P57" s="38"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="31"/>
       <c r="S57" s="30"/>
       <c r="T57" s="31"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="49"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="41"/>
       <c r="W57" s="3"/>
       <c r="AD57" s="7"/>
     </row>
@@ -5821,15 +5386,15 @@
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="47"/>
+      <c r="N58" s="39"/>
       <c r="O58" s="30"/>
-      <c r="P58" s="45"/>
+      <c r="P58" s="38"/>
       <c r="Q58" s="32"/>
       <c r="R58" s="31"/>
       <c r="S58" s="30"/>
       <c r="T58" s="31"/>
-      <c r="U58" s="48"/>
-      <c r="V58" s="49"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="41"/>
       <c r="W58" s="3"/>
       <c r="AD58" s="7"/>
     </row>
@@ -5850,15 +5415,15 @@
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
-      <c r="N59" s="47"/>
+      <c r="N59" s="39"/>
       <c r="O59" s="30"/>
-      <c r="P59" s="45"/>
+      <c r="P59" s="38"/>
       <c r="Q59" s="32"/>
       <c r="R59" s="31"/>
       <c r="S59" s="30"/>
       <c r="T59" s="31"/>
-      <c r="U59" s="48"/>
-      <c r="V59" s="49"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="41"/>
       <c r="W59" s="3"/>
       <c r="AD59" s="7"/>
     </row>
@@ -5879,15 +5444,15 @@
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
-      <c r="N60" s="47"/>
+      <c r="N60" s="39"/>
       <c r="O60" s="30"/>
-      <c r="P60" s="45"/>
+      <c r="P60" s="38"/>
       <c r="Q60" s="32"/>
       <c r="R60" s="31"/>
       <c r="S60" s="30"/>
       <c r="T60" s="31"/>
-      <c r="U60" s="48"/>
-      <c r="V60" s="49"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="41"/>
       <c r="W60" s="3"/>
       <c r="AD60" s="7"/>
     </row>
@@ -5908,15 +5473,15 @@
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
-      <c r="N61" s="47"/>
+      <c r="N61" s="39"/>
       <c r="O61" s="30"/>
-      <c r="P61" s="45"/>
+      <c r="P61" s="38"/>
       <c r="Q61" s="32"/>
       <c r="R61" s="31"/>
       <c r="S61" s="30"/>
       <c r="T61" s="31"/>
-      <c r="U61" s="48"/>
-      <c r="V61" s="49"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="41"/>
       <c r="W61" s="3"/>
       <c r="AD61" s="7"/>
     </row>
@@ -5937,15 +5502,15 @@
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="47"/>
+      <c r="N62" s="39"/>
       <c r="O62" s="30"/>
-      <c r="P62" s="45"/>
+      <c r="P62" s="38"/>
       <c r="Q62" s="32"/>
       <c r="R62" s="31"/>
       <c r="S62" s="30"/>
       <c r="T62" s="31"/>
-      <c r="U62" s="48"/>
-      <c r="V62" s="49"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="41"/>
       <c r="W62" s="3"/>
       <c r="AD62" s="7"/>
     </row>
@@ -5966,15 +5531,15 @@
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="47"/>
+      <c r="N63" s="39"/>
       <c r="O63" s="30"/>
-      <c r="P63" s="45"/>
+      <c r="P63" s="38"/>
       <c r="Q63" s="32"/>
       <c r="R63" s="31"/>
       <c r="S63" s="30"/>
       <c r="T63" s="31"/>
-      <c r="U63" s="48"/>
-      <c r="V63" s="49"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="41"/>
       <c r="AD63" s="7"/>
     </row>
     <row r="64" spans="1:30">
@@ -5994,15 +5559,15 @@
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="47"/>
+      <c r="N64" s="39"/>
       <c r="O64" s="30"/>
-      <c r="P64" s="45"/>
+      <c r="P64" s="38"/>
       <c r="Q64" s="32"/>
       <c r="R64" s="31"/>
       <c r="S64" s="30"/>
       <c r="T64" s="31"/>
-      <c r="U64" s="48"/>
-      <c r="V64" s="49"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="41"/>
       <c r="AD64" s="7"/>
     </row>
     <row r="65" spans="1:30">
@@ -6022,20 +5587,65 @@
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="47"/>
+      <c r="N65" s="39"/>
       <c r="O65" s="30"/>
-      <c r="P65" s="45"/>
+      <c r="P65" s="38"/>
       <c r="Q65" s="32"/>
       <c r="R65" s="31"/>
       <c r="S65" s="30"/>
       <c r="T65" s="31"/>
-      <c r="U65" s="48"/>
-      <c r="V65" s="49"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="41"/>
       <c r="AD65" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="61">
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U61:V61"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="U64:V64"/>
     <mergeCell ref="U58:V58"/>
     <mergeCell ref="U52:V52"/>
     <mergeCell ref="U41:V41"/>
@@ -6052,51 +5662,6 @@
     <mergeCell ref="U47:V47"/>
     <mergeCell ref="U48:V48"/>
     <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U61:V61"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="U64:V64"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U7:V7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 C6:N6 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 Q51:T65 U10:U65 P6:U6 P9:P65 O10:O25 H9:N65 Q9:Q12 Q10:T25">
@@ -6441,22 +6006,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X5">
       <formula1>$X$6:$X$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B65" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B65">
       <formula1>$X$6:$X$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C65" xr:uid="{3517F90D-68D6-44EA-978B-94425FB3BBE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C65">
       <formula1>$Y$6:$Y$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K65" xr:uid="{6A0BD5E4-2C8B-43AB-9FDE-54F5D923F833}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K65">
       <formula1>$Z$6:$Z$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L65" xr:uid="{6F52721C-79EE-4ECF-924E-DD4E6ED0F921}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L65">
       <formula1>$AA$6:$AA$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M65" xr:uid="{BF4EFC6B-D289-4F49-AE26-B002C8762001}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M65">
       <formula1>$AB$6:$AB$24</formula1>
     </dataValidation>
   </dataValidations>
@@ -6467,9 +6032,6 @@
     <oddHeader>&amp;LTTC社内管理システム導入プロジェクト&amp;R&amp;"ＭＳ Ｐゴシック,標準"NSSOL  &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;"-,太字 斜体"Copyright 2012 NS Solutions Corporation China,All Rights Reserved.&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="H6" numberStoredAsText="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
+++ b/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\总体管理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79216AD9-6661-4F01-8B2B-32DD94B5B6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="13176"/>
+    <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="课题管理表" sheetId="2" r:id="rId1"/>
@@ -21,7 +27,7 @@
     <definedName name="Z_ECA4C4B1_6CF3_4CD3_B966_EAC9F90B228C_.wvu.FilterData" localSheetId="0" hidden="1">课题管理表!$A$5:$U$5</definedName>
     <definedName name="Z_ECA4C4B1_6CF3_4CD3_B966_EAC9F90B228C_.wvu.PrintTitles" localSheetId="0" hidden="1">课题管理表!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
   <si>
     <t>*</t>
   </si>
@@ -43,6 +49,9 @@
   </si>
   <si>
     <t>更新日</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
   <si>
     <t>提出</t>
@@ -77,6 +86,9 @@
   </si>
   <si>
     <t>内容发布</t>
+  </si>
+  <si>
+    <t>内容发布</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -97,6 +109,34 @@
   </si>
   <si>
     <t>S-Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SH SOGO</t>
+  </si>
+  <si>
+    <t>SH SOGO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>87358</t>
+  </si>
+  <si>
+    <t>87358</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -212,6 +252,9 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -227,8 +270,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>2019/09/29</t>
+  </si>
+  <si>
+    <t>2019/09/29</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【2019/09/29】
+新内容投放
+链接：https://pan.baidu.com/s/1eJ54YdNiHG6OfrSKodfisw
+提取码：a5po
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/09/29】
+设备切换完成，网络确认完成，新内容已投放</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>李琳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郭文博</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Comments</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0020019498</t>
+  </si>
+  <si>
+    <t>0020028831</t>
+  </si>
+  <si>
+    <t>Wuhan</t>
   </si>
   <si>
     <t>处理
@@ -261,60 +341,183 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>2019/10/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【2019/10/17】
+新内容投放
+链接：https://pan.baidu.com/s/1V_rE3DT3_1lekPFHecB5Hw 
+提取码：6apj
+</t>
+  </si>
+  <si>
+    <t>【2019/10/17】
+网络确认完成，新内容已投放</t>
+  </si>
+  <si>
+    <t>2019/10/17</t>
+  </si>
+  <si>
+    <t>李琳</t>
+  </si>
+  <si>
+    <t>郭文博</t>
+  </si>
+  <si>
+    <t>WUHAN BEACON STREET</t>
+  </si>
+  <si>
+    <t>156086
+155994
+156075</t>
+  </si>
+  <si>
+    <t>2019/10/21</t>
+  </si>
+  <si>
+    <t>2019/10/22</t>
+  </si>
+  <si>
+    <t>MAX-PLUS</t>
+  </si>
+  <si>
+    <t>【2019/10/21】
+新内容投放
+链接：https://urldefense.proofpoint.com/v2/url?u=https-3A__wetransfer.com_downloads_e913a5839e5ccd063ba98c944b2a88ee20191020155425_8d127a4c4df3aef18ed9803fbd4eccc820191020155425_b4f615&amp;d=DwMFaQ&amp;c=yCitMa_Rl8ia06dt8C2gQscQgHRrUUjapbGBwmCpNec&amp;r=F3K0dqWbxS9f7De6solcCA&amp;m=b-zWXFDDfjGyFslpOmneN2ZjSIp0_Djod5JQfOsUnY4&amp;s=BzXCGIGI5DnkpOrJf_DdVHWDxTwDtkbc_RQiIlG8_eI&amp;e=</t>
+  </si>
+  <si>
+    <t>【2019/10/22】
+网络确认完成，新内容已投放</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【2019/10/31】
+新内容投放
+链接：https://pan.baidu.com/s/1ajG-m6iJwY5zUZSQlx3M5A&amp;shfl=sharepset 
+提取码：80oi 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【2019/11/01】
+追加投放内容
+链接：https://pan.baidu.com/s/1yFZGtjNCZSnff0Domx2nEQ
+提取码：7hua
+（仅播放有分割线的视频，另一个不投放）
+网络确认完成，新内容已投
+</t>
+  </si>
+  <si>
+    <t>任秋凤</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
+    <t>【2019/11/25】
+为客户提取武汉店F2素材</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>运营执行</t>
+  </si>
+  <si>
+    <t>运营执行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/11/25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>门店长</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>辛红</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Kris</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/11/21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/21】
+为客户提取香港店门头素材</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/22】
+已为客户提取香港店门头素材</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>154367
+114861
+154366</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>114878
+154127</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/26】
+已为客户提取武汉店F2素材</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郭文博</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>李琳</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>故障对应</t>
   </si>
   <si>
-    <t>0020025975</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BeiJing Solana</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>门店</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2019/12/10 晚九点左右
-门店反应门头LED黑屏，希望于12/11内解决</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CHN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Beijing</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A1-A3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12/10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12/11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B</t>
+    <t>154118</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/11/28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>谭志明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/28】
+武汉店A1屏幕出现白屏</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/28】
+远程重启设备后正常播放，判断为长时间未断电设备过热引起</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刘琪</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -501,7 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +801,7 @@
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,8 +931,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="181" fontId="16" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="182" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -752,38 +987,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -792,24 +995,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Grey" xfId="1"/>
-    <cellStyle name="Input [yellow]" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="3"/>
-    <cellStyle name="Percent [2]" xfId="4"/>
-    <cellStyle name="センター" xfId="5"/>
-    <cellStyle name="標準_☆課題一覧_20070209" xfId="6"/>
-    <cellStyle name="常规_08 課題管理一覧表" xfId="7"/>
-    <cellStyle name="桁蟻唇Ｆ [0.00]_Sheet1" xfId="8"/>
-    <cellStyle name="桁蟻唇Ｆ_Sheet1" xfId="9"/>
-    <cellStyle name="脱浦 [0.00]_laroux" xfId="10"/>
-    <cellStyle name="脱浦_laroux" xfId="11"/>
+    <cellStyle name="Grey" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Input [yellow]" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal - Style1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Percent [2]" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="センター" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_☆課題一覧_20070209" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_08 課題管理一覧表" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="桁蟻唇Ｆ [0.00]_Sheet1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="桁蟻唇Ｆ_Sheet1" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="脱浦 [0.00]_laroux" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="脱浦_laroux" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="93">
     <dxf>
@@ -1496,7 +1695,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1775,7 @@
         <xdr:cNvPr id="3" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +2141,7 @@
         <xdr:cNvPr id="4" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{343A9AC4-E784-47A7-BA3D-1DA1019FEE06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343A9AC4-E784-47A7-BA3D-1DA1019FEE06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2810,7 @@
         <xdr:cNvPr id="5" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70150453-96F1-4BB0-95D7-E157DF2D1E5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70150453-96F1-4BB0-95D7-E157DF2D1E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,18 +3436,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12"/>
@@ -3330,11 +3529,11 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="S2" s="15">
         <f>COUNTA(B6:B65)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T2" s="14" t="s">
         <v>1</v>
@@ -3374,12 +3573,12 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="S3" s="15">
         <f>COUNTIF(B:B,"确认
 完成")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T3" s="14" t="s">
         <v>2</v>
@@ -3436,144 +3635,152 @@
     </row>
     <row r="5" spans="1:30" s="1" customFormat="1" ht="26.4">
       <c r="A5" s="33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="Q5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" s="37" t="s">
-        <v>22</v>
-      </c>
       <c r="T5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="43"/>
+        <v>37</v>
+      </c>
+      <c r="U5" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="51"/>
       <c r="W5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y5" s="21" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AC5" s="21"/>
       <c r="AD5" s="21"/>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="24">
-      <c r="A6" s="44">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="84">
+      <c r="A6" s="38">
         <f t="shared" ref="A6:A65" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="46" t="s">
+      <c r="N6" s="46">
+        <v>1</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="46" t="s">
+      <c r="S6" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="46" t="s">
+      <c r="T6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="47">
-        <v>1</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
       <c r="W6" s="16"/>
@@ -3585,254 +3792,482 @@
       <c r="AC6" s="23"/>
       <c r="AD6" s="23"/>
     </row>
-    <row r="7" spans="1:30" s="2" customFormat="1">
-      <c r="A7" s="44">
+    <row r="7" spans="1:30" s="2" customFormat="1" ht="84">
+      <c r="A7" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
+      <c r="B7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="46">
+        <v>1</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" s="41" t="s">
+        <v>77</v>
+      </c>
       <c r="U7" s="52"/>
       <c r="V7" s="53"/>
       <c r="W7" s="16"/>
       <c r="X7" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y7" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z7" s="21" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AA7" s="22" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB7" s="22" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AC7" s="23"/>
       <c r="AD7" s="23"/>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" ht="24">
-      <c r="A8" s="44">
+    <row r="8" spans="1:30" s="2" customFormat="1" ht="156">
+      <c r="A8" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="51"/>
+      <c r="B8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="46">
+        <v>1</v>
+      </c>
+      <c r="O8" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="40">
+        <v>43760</v>
+      </c>
+      <c r="S8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="43" t="s">
+        <v>77</v>
+      </c>
       <c r="U8" s="52"/>
       <c r="V8" s="53"/>
       <c r="W8" s="16"/>
       <c r="X8" s="20" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AA8" s="22" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AB8" s="22" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC8" s="23"/>
       <c r="AD8" s="23"/>
     </row>
-    <row r="9" spans="1:30" s="2" customFormat="1" ht="24">
-      <c r="A9" s="44">
+    <row r="9" spans="1:30" s="2" customFormat="1" ht="108">
+      <c r="A9" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
+      <c r="B9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="46">
+        <v>1</v>
+      </c>
+      <c r="O9" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="43">
+        <v>43770</v>
+      </c>
+      <c r="S9" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="41" t="s">
+        <v>77</v>
+      </c>
       <c r="U9" s="52"/>
       <c r="V9" s="53"/>
       <c r="W9" s="16"/>
       <c r="X9" s="20" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AA9" s="22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AB9" s="22" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AC9" s="23"/>
       <c r="AD9" s="23"/>
     </row>
-    <row r="10" spans="1:30" s="2" customFormat="1" ht="24">
-      <c r="A10" s="44">
+    <row r="10" spans="1:30" s="2" customFormat="1" ht="36">
+      <c r="A10" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="51"/>
+      <c r="B10" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="46">
+        <v>1</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="43">
+        <v>43791</v>
+      </c>
+      <c r="S10" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="43" t="s">
+        <v>77</v>
+      </c>
       <c r="U10" s="52"/>
       <c r="V10" s="53"/>
       <c r="W10" s="16"/>
       <c r="X10" s="20" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AA10" s="22" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AB10" s="22"/>
       <c r="AC10" s="23"/>
       <c r="AD10" s="23"/>
     </row>
-    <row r="11" spans="1:30" s="2" customFormat="1">
-      <c r="A11" s="44">
+    <row r="11" spans="1:30" s="2" customFormat="1" ht="36">
+      <c r="A11" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="51"/>
+      <c r="B11" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="46">
+        <v>1</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="43">
+        <v>43795</v>
+      </c>
+      <c r="S11" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="U11" s="52"/>
       <c r="V11" s="53"/>
       <c r="W11" s="16"/>
       <c r="X11" s="21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="21" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AA11" s="22"/>
       <c r="AB11" s="22"/>
       <c r="AC11" s="23"/>
       <c r="AD11" s="23"/>
     </row>
-    <row r="12" spans="1:30" s="2" customFormat="1">
-      <c r="A12" s="44">
+    <row r="12" spans="1:30" s="2" customFormat="1" ht="36">
+      <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="51"/>
+      <c r="B12" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="46">
+        <v>1</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="R12" s="43">
+        <v>43797</v>
+      </c>
+      <c r="S12" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="T12" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="U12" s="52"/>
       <c r="V12" s="53"/>
       <c r="W12" s="16"/>
       <c r="X12" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
@@ -3858,15 +4293,15 @@
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="39"/>
+      <c r="N13" s="47"/>
       <c r="O13" s="30"/>
-      <c r="P13" s="38"/>
+      <c r="P13" s="45"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="31"/>
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="41"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="49"/>
       <c r="W13" s="16"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
@@ -3893,15 +4328,15 @@
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="39"/>
+      <c r="N14" s="47"/>
       <c r="O14" s="30"/>
-      <c r="P14" s="38"/>
+      <c r="P14" s="45"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="31"/>
       <c r="S14" s="30"/>
       <c r="T14" s="31"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="41"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49"/>
       <c r="W14" s="16"/>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
@@ -3928,15 +4363,15 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="39"/>
+      <c r="N15" s="47"/>
       <c r="O15" s="30"/>
-      <c r="P15" s="38"/>
+      <c r="P15" s="45"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="31"/>
       <c r="S15" s="30"/>
       <c r="T15" s="31"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="41"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="49"/>
       <c r="W15" s="16"/>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -3963,15 +4398,15 @@
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="39"/>
+      <c r="N16" s="47"/>
       <c r="O16" s="30"/>
-      <c r="P16" s="38"/>
+      <c r="P16" s="45"/>
       <c r="Q16" s="32"/>
       <c r="R16" s="31"/>
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="41"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="49"/>
       <c r="W16" s="16"/>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
@@ -3998,15 +4433,15 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="39"/>
+      <c r="N17" s="47"/>
       <c r="O17" s="30"/>
-      <c r="P17" s="38"/>
+      <c r="P17" s="45"/>
       <c r="Q17" s="32"/>
       <c r="R17" s="31"/>
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="41"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="49"/>
       <c r="W17" s="16"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
@@ -4033,15 +4468,15 @@
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="39"/>
+      <c r="N18" s="47"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="38"/>
+      <c r="P18" s="45"/>
       <c r="Q18" s="32"/>
       <c r="R18" s="31"/>
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="41"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="49"/>
       <c r="W18" s="16"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
@@ -4068,15 +4503,15 @@
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
-      <c r="N19" s="39"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="30"/>
-      <c r="P19" s="38"/>
+      <c r="P19" s="45"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="31"/>
       <c r="S19" s="30"/>
       <c r="T19" s="31"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="41"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="49"/>
       <c r="W19" s="16"/>
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
@@ -4103,15 +4538,15 @@
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="N20" s="39"/>
+      <c r="N20" s="47"/>
       <c r="O20" s="30"/>
-      <c r="P20" s="38"/>
+      <c r="P20" s="45"/>
       <c r="Q20" s="32"/>
       <c r="R20" s="31"/>
       <c r="S20" s="30"/>
       <c r="T20" s="31"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="41"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="49"/>
       <c r="W20" s="16"/>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
@@ -4138,15 +4573,15 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="39"/>
+      <c r="N21" s="47"/>
       <c r="O21" s="30"/>
-      <c r="P21" s="38"/>
+      <c r="P21" s="45"/>
       <c r="Q21" s="32"/>
       <c r="R21" s="31"/>
       <c r="S21" s="30"/>
       <c r="T21" s="31"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="41"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="49"/>
       <c r="W21" s="16"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
@@ -4173,15 +4608,15 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="39"/>
+      <c r="N22" s="47"/>
       <c r="O22" s="30"/>
-      <c r="P22" s="38"/>
+      <c r="P22" s="45"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="31"/>
       <c r="S22" s="30"/>
       <c r="T22" s="31"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="41"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="49"/>
       <c r="W22" s="16"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
@@ -4208,15 +4643,15 @@
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="39"/>
+      <c r="N23" s="47"/>
       <c r="O23" s="30"/>
-      <c r="P23" s="38"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="32"/>
       <c r="R23" s="31"/>
       <c r="S23" s="30"/>
       <c r="T23" s="31"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="41"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="49"/>
       <c r="W23" s="16"/>
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
@@ -4243,15 +4678,15 @@
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
-      <c r="N24" s="39"/>
+      <c r="N24" s="47"/>
       <c r="O24" s="30"/>
-      <c r="P24" s="38"/>
+      <c r="P24" s="45"/>
       <c r="Q24" s="32"/>
       <c r="R24" s="31"/>
       <c r="S24" s="30"/>
       <c r="T24" s="31"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="41"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="49"/>
       <c r="W24" s="16"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
@@ -4278,15 +4713,15 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="39"/>
+      <c r="N25" s="47"/>
       <c r="O25" s="30"/>
-      <c r="P25" s="38"/>
+      <c r="P25" s="45"/>
       <c r="Q25" s="32"/>
       <c r="R25" s="31"/>
       <c r="S25" s="30"/>
       <c r="T25" s="31"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="41"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="49"/>
       <c r="W25" s="16"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
@@ -4313,15 +4748,15 @@
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
-      <c r="N26" s="39"/>
+      <c r="N26" s="47"/>
       <c r="O26" s="30"/>
-      <c r="P26" s="38"/>
+      <c r="P26" s="45"/>
       <c r="Q26" s="32"/>
       <c r="R26" s="31"/>
       <c r="S26" s="30"/>
       <c r="T26" s="31"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="41"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="49"/>
       <c r="W26" s="16"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -4348,15 +4783,15 @@
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
-      <c r="N27" s="39"/>
+      <c r="N27" s="47"/>
       <c r="O27" s="30"/>
-      <c r="P27" s="38"/>
+      <c r="P27" s="45"/>
       <c r="Q27" s="32"/>
       <c r="R27" s="31"/>
       <c r="S27" s="30"/>
       <c r="T27" s="31"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="41"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="49"/>
       <c r="W27" s="16"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
@@ -4383,15 +4818,15 @@
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
-      <c r="N28" s="39"/>
+      <c r="N28" s="47"/>
       <c r="O28" s="30"/>
-      <c r="P28" s="38"/>
+      <c r="P28" s="45"/>
       <c r="Q28" s="32"/>
       <c r="R28" s="31"/>
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="41"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="49"/>
       <c r="W28" s="24"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -4418,15 +4853,15 @@
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="39"/>
+      <c r="N29" s="47"/>
       <c r="O29" s="30"/>
-      <c r="P29" s="38"/>
+      <c r="P29" s="45"/>
       <c r="Q29" s="32"/>
       <c r="R29" s="31"/>
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="41"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="49"/>
       <c r="W29" s="24"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
@@ -4453,15 +4888,15 @@
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
-      <c r="N30" s="39"/>
+      <c r="N30" s="47"/>
       <c r="O30" s="30"/>
-      <c r="P30" s="38"/>
+      <c r="P30" s="45"/>
       <c r="Q30" s="32"/>
       <c r="R30" s="31"/>
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="41"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="49"/>
       <c r="W30" s="24"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -4488,15 +4923,15 @@
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
-      <c r="N31" s="39"/>
+      <c r="N31" s="47"/>
       <c r="O31" s="30"/>
-      <c r="P31" s="38"/>
+      <c r="P31" s="45"/>
       <c r="Q31" s="32"/>
       <c r="R31" s="31"/>
       <c r="S31" s="30"/>
       <c r="T31" s="31"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="41"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="49"/>
       <c r="W31" s="24"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
@@ -4523,15 +4958,15 @@
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
-      <c r="N32" s="39"/>
+      <c r="N32" s="47"/>
       <c r="O32" s="30"/>
-      <c r="P32" s="38"/>
+      <c r="P32" s="45"/>
       <c r="Q32" s="32"/>
       <c r="R32" s="31"/>
       <c r="S32" s="30"/>
       <c r="T32" s="31"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="41"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="49"/>
       <c r="W32" s="24"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -4558,15 +4993,15 @@
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="39"/>
+      <c r="N33" s="47"/>
       <c r="O33" s="30"/>
-      <c r="P33" s="38"/>
+      <c r="P33" s="45"/>
       <c r="Q33" s="32"/>
       <c r="R33" s="31"/>
       <c r="S33" s="30"/>
       <c r="T33" s="31"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="41"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="49"/>
       <c r="W33" s="24"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
@@ -4593,15 +5028,15 @@
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
-      <c r="N34" s="39"/>
+      <c r="N34" s="47"/>
       <c r="O34" s="30"/>
-      <c r="P34" s="38"/>
+      <c r="P34" s="45"/>
       <c r="Q34" s="32"/>
       <c r="R34" s="31"/>
       <c r="S34" s="30"/>
       <c r="T34" s="31"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="41"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="49"/>
       <c r="W34" s="24"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -4628,15 +5063,15 @@
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="39"/>
+      <c r="N35" s="47"/>
       <c r="O35" s="30"/>
-      <c r="P35" s="38"/>
+      <c r="P35" s="45"/>
       <c r="Q35" s="32"/>
       <c r="R35" s="31"/>
       <c r="S35" s="30"/>
       <c r="T35" s="31"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="41"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="49"/>
       <c r="W35" s="24"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
@@ -4663,15 +5098,15 @@
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
-      <c r="N36" s="39"/>
+      <c r="N36" s="47"/>
       <c r="O36" s="30"/>
-      <c r="P36" s="38"/>
+      <c r="P36" s="45"/>
       <c r="Q36" s="32"/>
       <c r="R36" s="31"/>
       <c r="S36" s="30"/>
       <c r="T36" s="31"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="41"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="49"/>
       <c r="W36" s="24"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
@@ -4698,15 +5133,15 @@
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
-      <c r="N37" s="39"/>
+      <c r="N37" s="47"/>
       <c r="O37" s="30"/>
-      <c r="P37" s="38"/>
+      <c r="P37" s="45"/>
       <c r="Q37" s="32"/>
       <c r="R37" s="31"/>
       <c r="S37" s="30"/>
       <c r="T37" s="31"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="41"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
       <c r="W37" s="24"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
@@ -4733,15 +5168,15 @@
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
-      <c r="N38" s="39"/>
+      <c r="N38" s="47"/>
       <c r="O38" s="30"/>
-      <c r="P38" s="38"/>
+      <c r="P38" s="45"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="31"/>
       <c r="S38" s="30"/>
       <c r="T38" s="31"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="41"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="49"/>
       <c r="W38" s="24"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
@@ -4768,15 +5203,15 @@
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="39"/>
+      <c r="N39" s="47"/>
       <c r="O39" s="30"/>
-      <c r="P39" s="38"/>
+      <c r="P39" s="45"/>
       <c r="Q39" s="32"/>
       <c r="R39" s="31"/>
       <c r="S39" s="30"/>
       <c r="T39" s="31"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="41"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="49"/>
       <c r="W39" s="24"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
@@ -4803,15 +5238,15 @@
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="39"/>
+      <c r="N40" s="47"/>
       <c r="O40" s="30"/>
-      <c r="P40" s="38"/>
+      <c r="P40" s="45"/>
       <c r="Q40" s="32"/>
       <c r="R40" s="31"/>
       <c r="S40" s="30"/>
       <c r="T40" s="31"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="41"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="49"/>
       <c r="W40" s="24"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -4838,15 +5273,15 @@
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="39"/>
+      <c r="N41" s="47"/>
       <c r="O41" s="30"/>
-      <c r="P41" s="38"/>
+      <c r="P41" s="45"/>
       <c r="Q41" s="32"/>
       <c r="R41" s="31"/>
       <c r="S41" s="30"/>
       <c r="T41" s="31"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="41"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="49"/>
       <c r="W41" s="24"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
@@ -4873,15 +5308,15 @@
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="39"/>
+      <c r="N42" s="47"/>
       <c r="O42" s="30"/>
-      <c r="P42" s="38"/>
+      <c r="P42" s="45"/>
       <c r="Q42" s="32"/>
       <c r="R42" s="31"/>
       <c r="S42" s="30"/>
       <c r="T42" s="31"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="41"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="49"/>
       <c r="W42" s="24"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
@@ -4908,15 +5343,15 @@
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
-      <c r="N43" s="39"/>
+      <c r="N43" s="47"/>
       <c r="O43" s="30"/>
-      <c r="P43" s="38"/>
+      <c r="P43" s="45"/>
       <c r="Q43" s="32"/>
       <c r="R43" s="31"/>
       <c r="S43" s="30"/>
       <c r="T43" s="31"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="41"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="49"/>
       <c r="W43" s="24"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
@@ -4943,15 +5378,15 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="39"/>
+      <c r="N44" s="47"/>
       <c r="O44" s="30"/>
-      <c r="P44" s="38"/>
+      <c r="P44" s="45"/>
       <c r="Q44" s="32"/>
       <c r="R44" s="31"/>
       <c r="S44" s="30"/>
       <c r="T44" s="31"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="41"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="49"/>
       <c r="W44" s="24"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
@@ -4978,15 +5413,15 @@
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
-      <c r="N45" s="39"/>
+      <c r="N45" s="47"/>
       <c r="O45" s="30"/>
-      <c r="P45" s="38"/>
+      <c r="P45" s="45"/>
       <c r="Q45" s="32"/>
       <c r="R45" s="31"/>
       <c r="S45" s="30"/>
       <c r="T45" s="31"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="41"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="49"/>
       <c r="W45" s="24"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
@@ -5013,15 +5448,15 @@
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="39"/>
+      <c r="N46" s="47"/>
       <c r="O46" s="30"/>
-      <c r="P46" s="38"/>
+      <c r="P46" s="45"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="31"/>
       <c r="S46" s="30"/>
       <c r="T46" s="31"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="41"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="49"/>
       <c r="W46" s="24"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
@@ -5048,15 +5483,15 @@
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="39"/>
+      <c r="N47" s="47"/>
       <c r="O47" s="30"/>
-      <c r="P47" s="38"/>
+      <c r="P47" s="45"/>
       <c r="Q47" s="32"/>
       <c r="R47" s="31"/>
       <c r="S47" s="30"/>
       <c r="T47" s="31"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="41"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="49"/>
       <c r="W47" s="24"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
@@ -5083,15 +5518,15 @@
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
-      <c r="N48" s="39"/>
+      <c r="N48" s="47"/>
       <c r="O48" s="30"/>
-      <c r="P48" s="38"/>
+      <c r="P48" s="45"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="31"/>
       <c r="S48" s="30"/>
       <c r="T48" s="31"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="41"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="49"/>
       <c r="W48" s="24"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
@@ -5118,15 +5553,15 @@
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="39"/>
+      <c r="N49" s="47"/>
       <c r="O49" s="30"/>
-      <c r="P49" s="38"/>
+      <c r="P49" s="45"/>
       <c r="Q49" s="32"/>
       <c r="R49" s="31"/>
       <c r="S49" s="30"/>
       <c r="T49" s="31"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="41"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="49"/>
       <c r="W49" s="24"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
@@ -5153,15 +5588,15 @@
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="39"/>
+      <c r="N50" s="47"/>
       <c r="O50" s="30"/>
-      <c r="P50" s="38"/>
+      <c r="P50" s="45"/>
       <c r="Q50" s="32"/>
       <c r="R50" s="31"/>
       <c r="S50" s="30"/>
       <c r="T50" s="31"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="41"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="49"/>
       <c r="W50" s="24"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
@@ -5188,15 +5623,15 @@
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="39"/>
+      <c r="N51" s="47"/>
       <c r="O51" s="30"/>
-      <c r="P51" s="38"/>
+      <c r="P51" s="45"/>
       <c r="Q51" s="32"/>
       <c r="R51" s="31"/>
       <c r="S51" s="30"/>
       <c r="T51" s="31"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="41"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="49"/>
       <c r="W51" s="3"/>
     </row>
     <row r="52" spans="1:30">
@@ -5216,15 +5651,15 @@
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="39"/>
+      <c r="N52" s="47"/>
       <c r="O52" s="30"/>
-      <c r="P52" s="38"/>
+      <c r="P52" s="45"/>
       <c r="Q52" s="32"/>
       <c r="R52" s="31"/>
       <c r="S52" s="30"/>
       <c r="T52" s="31"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="41"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="49"/>
       <c r="W52" s="3"/>
     </row>
     <row r="53" spans="1:30">
@@ -5244,15 +5679,15 @@
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="39"/>
+      <c r="N53" s="47"/>
       <c r="O53" s="30"/>
-      <c r="P53" s="38"/>
+      <c r="P53" s="45"/>
       <c r="Q53" s="32"/>
       <c r="R53" s="31"/>
       <c r="S53" s="30"/>
       <c r="T53" s="31"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="41"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="49"/>
       <c r="W53" s="3"/>
     </row>
     <row r="54" spans="1:30">
@@ -5272,15 +5707,15 @@
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="39"/>
+      <c r="N54" s="47"/>
       <c r="O54" s="30"/>
-      <c r="P54" s="38"/>
+      <c r="P54" s="45"/>
       <c r="Q54" s="32"/>
       <c r="R54" s="31"/>
       <c r="S54" s="30"/>
       <c r="T54" s="31"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="41"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="49"/>
       <c r="W54" s="3"/>
     </row>
     <row r="55" spans="1:30">
@@ -5300,15 +5735,15 @@
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
-      <c r="N55" s="39"/>
+      <c r="N55" s="47"/>
       <c r="O55" s="30"/>
-      <c r="P55" s="38"/>
+      <c r="P55" s="45"/>
       <c r="Q55" s="32"/>
       <c r="R55" s="31"/>
       <c r="S55" s="30"/>
       <c r="T55" s="31"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="41"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="49"/>
       <c r="W55" s="3"/>
     </row>
     <row r="56" spans="1:30">
@@ -5328,15 +5763,15 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
-      <c r="N56" s="39"/>
+      <c r="N56" s="47"/>
       <c r="O56" s="30"/>
-      <c r="P56" s="38"/>
+      <c r="P56" s="45"/>
       <c r="Q56" s="32"/>
       <c r="R56" s="31"/>
       <c r="S56" s="30"/>
       <c r="T56" s="31"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="41"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="49"/>
       <c r="W56" s="3"/>
       <c r="AD56" s="7"/>
     </row>
@@ -5357,15 +5792,15 @@
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
-      <c r="N57" s="39"/>
+      <c r="N57" s="47"/>
       <c r="O57" s="30"/>
-      <c r="P57" s="38"/>
+      <c r="P57" s="45"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="31"/>
       <c r="S57" s="30"/>
       <c r="T57" s="31"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="41"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="49"/>
       <c r="W57" s="3"/>
       <c r="AD57" s="7"/>
     </row>
@@ -5386,15 +5821,15 @@
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="39"/>
+      <c r="N58" s="47"/>
       <c r="O58" s="30"/>
-      <c r="P58" s="38"/>
+      <c r="P58" s="45"/>
       <c r="Q58" s="32"/>
       <c r="R58" s="31"/>
       <c r="S58" s="30"/>
       <c r="T58" s="31"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="41"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="49"/>
       <c r="W58" s="3"/>
       <c r="AD58" s="7"/>
     </row>
@@ -5415,15 +5850,15 @@
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
-      <c r="N59" s="39"/>
+      <c r="N59" s="47"/>
       <c r="O59" s="30"/>
-      <c r="P59" s="38"/>
+      <c r="P59" s="45"/>
       <c r="Q59" s="32"/>
       <c r="R59" s="31"/>
       <c r="S59" s="30"/>
       <c r="T59" s="31"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="41"/>
+      <c r="U59" s="48"/>
+      <c r="V59" s="49"/>
       <c r="W59" s="3"/>
       <c r="AD59" s="7"/>
     </row>
@@ -5444,15 +5879,15 @@
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
-      <c r="N60" s="39"/>
+      <c r="N60" s="47"/>
       <c r="O60" s="30"/>
-      <c r="P60" s="38"/>
+      <c r="P60" s="45"/>
       <c r="Q60" s="32"/>
       <c r="R60" s="31"/>
       <c r="S60" s="30"/>
       <c r="T60" s="31"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="41"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="49"/>
       <c r="W60" s="3"/>
       <c r="AD60" s="7"/>
     </row>
@@ -5473,15 +5908,15 @@
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
-      <c r="N61" s="39"/>
+      <c r="N61" s="47"/>
       <c r="O61" s="30"/>
-      <c r="P61" s="38"/>
+      <c r="P61" s="45"/>
       <c r="Q61" s="32"/>
       <c r="R61" s="31"/>
       <c r="S61" s="30"/>
       <c r="T61" s="31"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="41"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="49"/>
       <c r="W61" s="3"/>
       <c r="AD61" s="7"/>
     </row>
@@ -5502,15 +5937,15 @@
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="39"/>
+      <c r="N62" s="47"/>
       <c r="O62" s="30"/>
-      <c r="P62" s="38"/>
+      <c r="P62" s="45"/>
       <c r="Q62" s="32"/>
       <c r="R62" s="31"/>
       <c r="S62" s="30"/>
       <c r="T62" s="31"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="41"/>
+      <c r="U62" s="48"/>
+      <c r="V62" s="49"/>
       <c r="W62" s="3"/>
       <c r="AD62" s="7"/>
     </row>
@@ -5531,15 +5966,15 @@
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="39"/>
+      <c r="N63" s="47"/>
       <c r="O63" s="30"/>
-      <c r="P63" s="38"/>
+      <c r="P63" s="45"/>
       <c r="Q63" s="32"/>
       <c r="R63" s="31"/>
       <c r="S63" s="30"/>
       <c r="T63" s="31"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="41"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="49"/>
       <c r="AD63" s="7"/>
     </row>
     <row r="64" spans="1:30">
@@ -5559,15 +5994,15 @@
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="39"/>
+      <c r="N64" s="47"/>
       <c r="O64" s="30"/>
-      <c r="P64" s="38"/>
+      <c r="P64" s="45"/>
       <c r="Q64" s="32"/>
       <c r="R64" s="31"/>
       <c r="S64" s="30"/>
       <c r="T64" s="31"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="41"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="49"/>
       <c r="AD64" s="7"/>
     </row>
     <row r="65" spans="1:30">
@@ -5587,65 +6022,20 @@
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="39"/>
+      <c r="N65" s="47"/>
       <c r="O65" s="30"/>
-      <c r="P65" s="38"/>
+      <c r="P65" s="45"/>
       <c r="Q65" s="32"/>
       <c r="R65" s="31"/>
       <c r="S65" s="30"/>
       <c r="T65" s="31"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="41"/>
+      <c r="U65" s="48"/>
+      <c r="V65" s="49"/>
       <c r="AD65" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="61">
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U61:V61"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="U64:V64"/>
     <mergeCell ref="U58:V58"/>
     <mergeCell ref="U52:V52"/>
     <mergeCell ref="U41:V41"/>
@@ -5662,6 +6052,51 @@
     <mergeCell ref="U47:V47"/>
     <mergeCell ref="U48:V48"/>
     <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U61:V61"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="U64:V64"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U7:V7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 C6:N6 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 Q51:T65 U10:U65 P6:U6 P9:P65 O10:O25 H9:N65 Q9:Q12 Q10:T25">
@@ -6006,22 +6441,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$X$6:$X$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B65" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$X$6:$X$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C65" xr:uid="{3517F90D-68D6-44EA-978B-94425FB3BBE2}">
       <formula1>$Y$6:$Y$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K65" xr:uid="{6A0BD5E4-2C8B-43AB-9FDE-54F5D923F833}">
       <formula1>$Z$6:$Z$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L65" xr:uid="{6F52721C-79EE-4ECF-924E-DD4E6ED0F921}">
       <formula1>$AA$6:$AA$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M65" xr:uid="{BF4EFC6B-D289-4F49-AE26-B002C8762001}">
       <formula1>$AB$6:$AB$24</formula1>
     </dataValidation>
   </dataValidations>
@@ -6032,6 +6467,9 @@
     <oddHeader>&amp;LTTC社内管理システム導入プロジェクト&amp;R&amp;"ＭＳ Ｐゴシック,標準"NSSOL  &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;"-,太字 斜体"Copyright 2012 NS Solutions Corporation China,All Rights Reserved.&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="H6" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
+++ b/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\总体管理\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79216AD9-6661-4F01-8B2B-32DD94B5B6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="课题管理表" sheetId="2" r:id="rId1"/>
@@ -27,7 +21,7 @@
     <definedName name="Z_ECA4C4B1_6CF3_4CD3_B966_EAC9F90B228C_.wvu.FilterData" localSheetId="0" hidden="1">课题管理表!$A$5:$U$5</definedName>
     <definedName name="Z_ECA4C4B1_6CF3_4CD3_B966_EAC9F90B228C_.wvu.PrintTitles" localSheetId="0" hidden="1">课题管理表!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
   <si>
     <t>*</t>
   </si>
@@ -390,13 +384,6 @@
 网络确认完成，新内容已投放</t>
   </si>
   <si>
-    <t xml:space="preserve">【2019/10/31】
-新内容投放
-链接：https://pan.baidu.com/s/1ajG-m6iJwY5zUZSQlx3M5A&amp;shfl=sharepset 
-提取码：80oi 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">【2019/11/01】
 追加投放内容
 链接：https://pan.baidu.com/s/1yFZGtjNCZSnff0Domx2nEQ
@@ -513,11 +500,55 @@
     <t>刘琪</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beijing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/12/10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/12/11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>门店长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【2019/10/31】
+新内容投放
+链接：https://pan.baidu.com/s/1ajG-m6iJwY5zUZSQlx3M5A&amp;shfl=sharepset 
+提取码：80oi 
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/12/10】
+客户反映门头LED黑屏，要求次日内解决显示问题</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0020025975</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BeiJing Solana</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -997,20 +1028,41 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Grey" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Input [yellow]" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal - Style1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Percent [2]" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="センター" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準_☆課題一覧_20070209" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_08 課題管理一覧表" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="桁蟻唇Ｆ [0.00]_Sheet1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="桁蟻唇Ｆ_Sheet1" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="脱浦 [0.00]_laroux" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="脱浦_laroux" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Grey" xfId="1"/>
+    <cellStyle name="Input [yellow]" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal - Style1" xfId="3"/>
+    <cellStyle name="Percent [2]" xfId="4"/>
+    <cellStyle name="センター" xfId="5"/>
+    <cellStyle name="標準_☆課題一覧_20070209" xfId="6"/>
+    <cellStyle name="常规_08 課題管理一覧表" xfId="7"/>
+    <cellStyle name="桁蟻唇Ｆ [0.00]_Sheet1" xfId="8"/>
+    <cellStyle name="桁蟻唇Ｆ_Sheet1" xfId="9"/>
+    <cellStyle name="脱浦 [0.00]_laroux" xfId="10"/>
+    <cellStyle name="脱浦_laroux" xfId="11"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="96">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1695,7 +1747,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1827,7 @@
         <xdr:cNvPr id="3" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2193,7 @@
         <xdr:cNvPr id="4" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343A9AC4-E784-47A7-BA3D-1DA1019FEE06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{343A9AC4-E784-47A7-BA3D-1DA1019FEE06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2862,7 @@
         <xdr:cNvPr id="5" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70150453-96F1-4BB0-95D7-E157DF2D1E5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70150453-96F1-4BB0-95D7-E157DF2D1E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,18 +3488,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12"/>
@@ -3533,7 +3585,7 @@
       </c>
       <c r="S2" s="15">
         <f>COUNTA(B6:B65)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T2" s="14" t="s">
         <v>1</v>
@@ -3764,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P6" s="44" t="s">
         <v>61</v>
@@ -3837,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P7" s="44" t="s">
         <v>73</v>
@@ -4003,19 +4055,19 @@
         <v>1</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P9" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" s="42" t="s">
         <v>85</v>
-      </c>
-      <c r="Q9" s="42" t="s">
-        <v>86</v>
       </c>
       <c r="R9" s="43">
         <v>43770</v>
       </c>
       <c r="S9" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T9" s="41" t="s">
         <v>77</v>
@@ -4050,7 +4102,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>67</v>
@@ -4065,16 +4117,16 @@
         <v>68</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10" s="40" t="s">
         <v>54</v>
@@ -4086,19 +4138,19 @@
         <v>1</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P10" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="44" t="s">
         <v>97</v>
-      </c>
-      <c r="Q10" s="44" t="s">
-        <v>98</v>
       </c>
       <c r="R10" s="43">
         <v>43791</v>
       </c>
       <c r="S10" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T10" s="43" t="s">
         <v>77</v>
@@ -4131,7 +4183,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>67</v>
@@ -4146,16 +4198,16 @@
         <v>68</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" s="40" t="s">
         <v>54</v>
@@ -4167,22 +4219,22 @@
         <v>1</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P11" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R11" s="43">
         <v>43795</v>
       </c>
       <c r="S11" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T11" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U11" s="52"/>
       <c r="V11" s="53"/>
@@ -4191,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="Y11" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z11" s="21" t="s">
         <v>49</v>
@@ -4210,7 +4262,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>67</v>
@@ -4219,25 +4271,25 @@
         <v>78</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>68</v>
       </c>
       <c r="H12" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="J12" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="40" t="s">
+      <c r="L12" s="40" t="s">
         <v>107</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>108</v>
       </c>
       <c r="M12" s="40" t="s">
         <v>3</v>
@@ -4246,22 +4298,22 @@
         <v>1</v>
       </c>
       <c r="O12" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="P12" s="44" t="s">
+      <c r="Q12" s="44" t="s">
         <v>110</v>
-      </c>
-      <c r="Q12" s="44" t="s">
-        <v>111</v>
       </c>
       <c r="R12" s="43">
         <v>43797</v>
       </c>
       <c r="S12" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T12" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U12" s="52"/>
       <c r="V12" s="53"/>
@@ -4276,26 +4328,54 @@
       <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
     </row>
-    <row r="13" spans="1:30" s="2" customFormat="1">
+    <row r="13" spans="1:30" s="2" customFormat="1" ht="24">
       <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="B13" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>114</v>
+      </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="45"/>
+      <c r="I13" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="47">
+        <v>6</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="Q13" s="32"/>
       <c r="R13" s="31"/>
       <c r="S13" s="30"/>
@@ -6036,6 +6116,51 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="61">
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U61:V61"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="U64:V64"/>
     <mergeCell ref="U58:V58"/>
     <mergeCell ref="U52:V52"/>
     <mergeCell ref="U41:V41"/>
@@ -6052,411 +6177,366 @@
     <mergeCell ref="U47:V47"/>
     <mergeCell ref="U48:V48"/>
     <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U61:V61"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="U64:V64"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U7:V7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 C6:N6 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 Q51:T65 U10:U65 P6:U6 P9:P65 O10:O25 H9:N65 Q9:Q12 Q10:T25">
-    <cfRule type="expression" dxfId="92" priority="433">
+  <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 C6:N6 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 Q51:T65 U10:U65 P6:U6 P9:P65 O10:O25 Q9:Q12 Q10:T25 H9:N65">
+    <cfRule type="expression" dxfId="95" priority="433">
       <formula>$B6="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="438">
+    <cfRule type="expression" dxfId="94" priority="438">
       <formula>$B6="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="439">
+    <cfRule type="expression" dxfId="93" priority="439">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:T26">
-    <cfRule type="expression" dxfId="89" priority="430">
+    <cfRule type="expression" dxfId="92" priority="430">
       <formula>$B26="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="431">
+    <cfRule type="expression" dxfId="91" priority="431">
       <formula>$B26="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="432">
+    <cfRule type="expression" dxfId="90" priority="432">
       <formula>$B26="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="expression" dxfId="86" priority="412">
+    <cfRule type="expression" dxfId="89" priority="412">
       <formula>$B27="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="413">
+    <cfRule type="expression" dxfId="88" priority="413">
       <formula>$B27="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="414">
+    <cfRule type="expression" dxfId="87" priority="414">
       <formula>$B27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="83" priority="409">
+    <cfRule type="expression" dxfId="86" priority="409">
       <formula>$B29="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="410">
+    <cfRule type="expression" dxfId="85" priority="410">
       <formula>$B29="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="411">
+    <cfRule type="expression" dxfId="84" priority="411">
       <formula>$B29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="80" priority="400">
+    <cfRule type="expression" dxfId="83" priority="400">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="401">
+    <cfRule type="expression" dxfId="82" priority="401">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="402">
+    <cfRule type="expression" dxfId="81" priority="402">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="77" priority="397">
+    <cfRule type="expression" dxfId="80" priority="397">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="398">
+    <cfRule type="expression" dxfId="79" priority="398">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="399">
+    <cfRule type="expression" dxfId="78" priority="399">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="74" priority="388">
+    <cfRule type="expression" dxfId="77" priority="388">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="389">
+    <cfRule type="expression" dxfId="76" priority="389">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="390">
+    <cfRule type="expression" dxfId="75" priority="390">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="expression" dxfId="71" priority="382">
+    <cfRule type="expression" dxfId="74" priority="382">
       <formula>$B31="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="383">
+    <cfRule type="expression" dxfId="73" priority="383">
       <formula>$B31="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="384">
+    <cfRule type="expression" dxfId="72" priority="384">
       <formula>$B31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="expression" dxfId="68" priority="256">
+    <cfRule type="expression" dxfId="71" priority="256">
       <formula>$B56="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="257">
+    <cfRule type="expression" dxfId="70" priority="257">
       <formula>$B56="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="258">
+    <cfRule type="expression" dxfId="69" priority="258">
       <formula>$B56="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="expression" dxfId="65" priority="250">
+    <cfRule type="expression" dxfId="68" priority="250">
       <formula>$B57="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="251">
+    <cfRule type="expression" dxfId="67" priority="251">
       <formula>$B57="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="252">
+    <cfRule type="expression" dxfId="66" priority="252">
       <formula>$B57="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:S40">
-    <cfRule type="expression" dxfId="62" priority="148">
+    <cfRule type="expression" dxfId="65" priority="148">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="149">
+    <cfRule type="expression" dxfId="64" priority="149">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="150">
+    <cfRule type="expression" dxfId="63" priority="150">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:T40">
-    <cfRule type="expression" dxfId="59" priority="142">
+    <cfRule type="expression" dxfId="62" priority="142">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="143">
+    <cfRule type="expression" dxfId="61" priority="143">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="144">
+    <cfRule type="expression" dxfId="60" priority="144">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41:S50">
-    <cfRule type="expression" dxfId="56" priority="136">
+    <cfRule type="expression" dxfId="59" priority="136">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="137">
+    <cfRule type="expression" dxfId="58" priority="137">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="138">
+    <cfRule type="expression" dxfId="57" priority="138">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T41:T50">
-    <cfRule type="expression" dxfId="53" priority="130">
+    <cfRule type="expression" dxfId="56" priority="130">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="131">
+    <cfRule type="expression" dxfId="55" priority="131">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="132">
+    <cfRule type="expression" dxfId="54" priority="132">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51:O64 O27:O28">
-    <cfRule type="expression" dxfId="50" priority="64">
+    <cfRule type="expression" dxfId="53" priority="64">
       <formula>$B27="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="65">
+    <cfRule type="expression" dxfId="52" priority="65">
       <formula>$B27="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="66">
+    <cfRule type="expression" dxfId="51" priority="66">
       <formula>$B27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:O27">
-    <cfRule type="expression" dxfId="47" priority="61">
+    <cfRule type="expression" dxfId="50" priority="61">
       <formula>$B25="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="62">
+    <cfRule type="expression" dxfId="49" priority="62">
       <formula>$B25="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="63">
+    <cfRule type="expression" dxfId="48" priority="63">
       <formula>$B25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="expression" dxfId="44" priority="58">
+    <cfRule type="expression" dxfId="47" priority="58">
       <formula>$B29="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="59">
+    <cfRule type="expression" dxfId="46" priority="59">
       <formula>$B29="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="60">
+    <cfRule type="expression" dxfId="45" priority="60">
       <formula>$B29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
-    <cfRule type="expression" dxfId="41" priority="55">
+    <cfRule type="expression" dxfId="44" priority="55">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="56">
+    <cfRule type="expression" dxfId="43" priority="56">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="57">
+    <cfRule type="expression" dxfId="42" priority="57">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="expression" dxfId="38" priority="52">
+    <cfRule type="expression" dxfId="41" priority="52">
       <formula>$B31="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="53">
+    <cfRule type="expression" dxfId="40" priority="53">
       <formula>$B31="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="54">
+    <cfRule type="expression" dxfId="39" priority="54">
       <formula>$B31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65">
-    <cfRule type="expression" dxfId="35" priority="49">
+    <cfRule type="expression" dxfId="38" priority="49">
       <formula>$B65="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="50">
+    <cfRule type="expression" dxfId="37" priority="50">
       <formula>$B65="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="51">
+    <cfRule type="expression" dxfId="36" priority="51">
       <formula>$B65="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O40">
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:O50">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="33">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>$B24="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$B24="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>$B24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9 T9">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:N7 P7:T7">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$B6="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$B6="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X5">
       <formula1>$X$6:$X$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B65" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B65">
       <formula1>$X$6:$X$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C65" xr:uid="{3517F90D-68D6-44EA-978B-94425FB3BBE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C65">
       <formula1>$Y$6:$Y$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K65" xr:uid="{6A0BD5E4-2C8B-43AB-9FDE-54F5D923F833}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K65">
       <formula1>$Z$6:$Z$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L65" xr:uid="{6F52721C-79EE-4ECF-924E-DD4E6ED0F921}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L65">
       <formula1>$AA$6:$AA$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M65" xr:uid="{BF4EFC6B-D289-4F49-AE26-B002C8762001}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M65">
       <formula1>$AB$6:$AB$24</formula1>
     </dataValidation>
   </dataValidations>

--- a/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
+++ b/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\总体管理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5944DAF-D264-4AEB-9492-EFF4BB4ADB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="13176"/>
+    <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="课题管理表" sheetId="2" r:id="rId1"/>
@@ -21,7 +27,7 @@
     <definedName name="Z_ECA4C4B1_6CF3_4CD3_B966_EAC9F90B228C_.wvu.FilterData" localSheetId="0" hidden="1">课题管理表!$A$5:$U$5</definedName>
     <definedName name="Z_ECA4C4B1_6CF3_4CD3_B966_EAC9F90B228C_.wvu.PrintTitles" localSheetId="0" hidden="1">课题管理表!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
   <si>
     <t>*</t>
   </si>
@@ -544,11 +550,22 @@
     <t>BeiJing Solana</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t xml:space="preserve">【2019/12/11】
+1.调试并确认了确认网络设备，确保设备的连通性
+2.发现屏幕没有信号，最终确定为门店对应电表欠费导致强电没有连上。最终客户接通了电源，播放正常
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>166836</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1028,41 +1045,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Grey" xfId="1"/>
-    <cellStyle name="Input [yellow]" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="3"/>
-    <cellStyle name="Percent [2]" xfId="4"/>
-    <cellStyle name="センター" xfId="5"/>
-    <cellStyle name="標準_☆課題一覧_20070209" xfId="6"/>
-    <cellStyle name="常规_08 課題管理一覧表" xfId="7"/>
-    <cellStyle name="桁蟻唇Ｆ [0.00]_Sheet1" xfId="8"/>
-    <cellStyle name="桁蟻唇Ｆ_Sheet1" xfId="9"/>
-    <cellStyle name="脱浦 [0.00]_laroux" xfId="10"/>
-    <cellStyle name="脱浦_laroux" xfId="11"/>
+    <cellStyle name="Grey" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Input [yellow]" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal - Style1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Percent [2]" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="センター" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_☆課題一覧_20070209" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_08 課題管理一覧表" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="桁蟻唇Ｆ [0.00]_Sheet1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="桁蟻唇Ｆ_Sheet1" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="脱浦 [0.00]_laroux" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="脱浦_laroux" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="93">
     <dxf>
       <fill>
         <patternFill>
@@ -1747,7 +1743,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1823,7 @@
         <xdr:cNvPr id="3" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2189,7 @@
         <xdr:cNvPr id="4" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{343A9AC4-E784-47A7-BA3D-1DA1019FEE06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343A9AC4-E784-47A7-BA3D-1DA1019FEE06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2858,7 @@
         <xdr:cNvPr id="5" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70150453-96F1-4BB0-95D7-E157DF2D1E5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70150453-96F1-4BB0-95D7-E157DF2D1E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,18 +3484,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12"/>
@@ -3630,7 +3626,7 @@
       <c r="S3" s="15">
         <f>COUNTIF(B:B,"确认
 完成")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T3" s="14" t="s">
         <v>2</v>
@@ -4259,7 +4255,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>103</v>
@@ -4328,60 +4324,70 @@
       <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
     </row>
-    <row r="13" spans="1:30" s="2" customFormat="1" ht="24">
-      <c r="A13" s="27">
+    <row r="13" spans="1:30" s="2" customFormat="1" ht="60">
+      <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29" t="s">
+      <c r="H13" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="N13" s="47">
+      <c r="N13" s="46">
         <v>6</v>
       </c>
-      <c r="O13" s="30" t="s">
+      <c r="O13" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="P13" s="45" t="s">
+      <c r="P13" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="49"/>
+      <c r="Q13" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="43">
+        <v>43810</v>
+      </c>
+      <c r="S13" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="T13" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13" s="52"/>
+      <c r="V13" s="53"/>
       <c r="W13" s="16"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
@@ -6116,51 +6122,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="61">
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U61:V61"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="U64:V64"/>
     <mergeCell ref="U58:V58"/>
     <mergeCell ref="U52:V52"/>
     <mergeCell ref="U41:V41"/>
@@ -6177,366 +6138,411 @@
     <mergeCell ref="U47:V47"/>
     <mergeCell ref="U48:V48"/>
     <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U61:V61"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="U64:V64"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U7:V7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 C6:N6 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 Q51:T65 U10:U65 P6:U6 P9:P65 O10:O25 Q9:Q12 Q10:T25 H9:N65">
-    <cfRule type="expression" dxfId="95" priority="433">
+  <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 C6:N6 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 Q51:T65 U10:U65 P6:U6 P9:P65 O10:O25 Q9:Q12 H9:N65 Q10:T25">
+    <cfRule type="expression" dxfId="92" priority="433">
       <formula>$B6="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="438">
+    <cfRule type="expression" dxfId="91" priority="438">
       <formula>$B6="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="439">
+    <cfRule type="expression" dxfId="90" priority="439">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:T26">
-    <cfRule type="expression" dxfId="92" priority="430">
+    <cfRule type="expression" dxfId="89" priority="430">
       <formula>$B26="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="431">
+    <cfRule type="expression" dxfId="88" priority="431">
       <formula>$B26="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="432">
+    <cfRule type="expression" dxfId="87" priority="432">
       <formula>$B26="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="expression" dxfId="89" priority="412">
+    <cfRule type="expression" dxfId="86" priority="412">
       <formula>$B27="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="413">
+    <cfRule type="expression" dxfId="85" priority="413">
       <formula>$B27="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="414">
+    <cfRule type="expression" dxfId="84" priority="414">
       <formula>$B27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="86" priority="409">
+    <cfRule type="expression" dxfId="83" priority="409">
       <formula>$B29="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="410">
+    <cfRule type="expression" dxfId="82" priority="410">
       <formula>$B29="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="411">
+    <cfRule type="expression" dxfId="81" priority="411">
       <formula>$B29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="83" priority="400">
+    <cfRule type="expression" dxfId="80" priority="400">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="401">
+    <cfRule type="expression" dxfId="79" priority="401">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="402">
+    <cfRule type="expression" dxfId="78" priority="402">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="80" priority="397">
+    <cfRule type="expression" dxfId="77" priority="397">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="398">
+    <cfRule type="expression" dxfId="76" priority="398">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="399">
+    <cfRule type="expression" dxfId="75" priority="399">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="77" priority="388">
+    <cfRule type="expression" dxfId="74" priority="388">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="389">
+    <cfRule type="expression" dxfId="73" priority="389">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="390">
+    <cfRule type="expression" dxfId="72" priority="390">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="expression" dxfId="74" priority="382">
+    <cfRule type="expression" dxfId="71" priority="382">
       <formula>$B31="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="383">
+    <cfRule type="expression" dxfId="70" priority="383">
       <formula>$B31="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="384">
+    <cfRule type="expression" dxfId="69" priority="384">
       <formula>$B31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="expression" dxfId="71" priority="256">
+    <cfRule type="expression" dxfId="68" priority="256">
       <formula>$B56="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="257">
+    <cfRule type="expression" dxfId="67" priority="257">
       <formula>$B56="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="258">
+    <cfRule type="expression" dxfId="66" priority="258">
       <formula>$B56="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="expression" dxfId="68" priority="250">
+    <cfRule type="expression" dxfId="65" priority="250">
       <formula>$B57="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="251">
+    <cfRule type="expression" dxfId="64" priority="251">
       <formula>$B57="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="252">
+    <cfRule type="expression" dxfId="63" priority="252">
       <formula>$B57="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:S40">
-    <cfRule type="expression" dxfId="65" priority="148">
+    <cfRule type="expression" dxfId="62" priority="148">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="149">
+    <cfRule type="expression" dxfId="61" priority="149">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="150">
+    <cfRule type="expression" dxfId="60" priority="150">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:T40">
-    <cfRule type="expression" dxfId="62" priority="142">
+    <cfRule type="expression" dxfId="59" priority="142">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="143">
+    <cfRule type="expression" dxfId="58" priority="143">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="144">
+    <cfRule type="expression" dxfId="57" priority="144">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41:S50">
-    <cfRule type="expression" dxfId="59" priority="136">
+    <cfRule type="expression" dxfId="56" priority="136">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="137">
+    <cfRule type="expression" dxfId="55" priority="137">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="138">
+    <cfRule type="expression" dxfId="54" priority="138">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T41:T50">
-    <cfRule type="expression" dxfId="56" priority="130">
+    <cfRule type="expression" dxfId="53" priority="130">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="131">
+    <cfRule type="expression" dxfId="52" priority="131">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="132">
+    <cfRule type="expression" dxfId="51" priority="132">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51:O64 O27:O28">
-    <cfRule type="expression" dxfId="53" priority="64">
+    <cfRule type="expression" dxfId="50" priority="64">
       <formula>$B27="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="65">
+    <cfRule type="expression" dxfId="49" priority="65">
       <formula>$B27="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="66">
+    <cfRule type="expression" dxfId="48" priority="66">
       <formula>$B27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:O27">
-    <cfRule type="expression" dxfId="50" priority="61">
+    <cfRule type="expression" dxfId="47" priority="61">
       <formula>$B25="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="62">
+    <cfRule type="expression" dxfId="46" priority="62">
       <formula>$B25="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="63">
+    <cfRule type="expression" dxfId="45" priority="63">
       <formula>$B25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="expression" dxfId="47" priority="58">
+    <cfRule type="expression" dxfId="44" priority="58">
       <formula>$B29="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="59">
+    <cfRule type="expression" dxfId="43" priority="59">
       <formula>$B29="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="60">
+    <cfRule type="expression" dxfId="42" priority="60">
       <formula>$B29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
-    <cfRule type="expression" dxfId="44" priority="55">
+    <cfRule type="expression" dxfId="41" priority="55">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="56">
+    <cfRule type="expression" dxfId="40" priority="56">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="57">
+    <cfRule type="expression" dxfId="39" priority="57">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="expression" dxfId="41" priority="52">
+    <cfRule type="expression" dxfId="38" priority="52">
       <formula>$B31="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="53">
+    <cfRule type="expression" dxfId="37" priority="53">
       <formula>$B31="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="54">
+    <cfRule type="expression" dxfId="36" priority="54">
       <formula>$B31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65">
-    <cfRule type="expression" dxfId="38" priority="49">
+    <cfRule type="expression" dxfId="35" priority="49">
       <formula>$B65="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="50">
+    <cfRule type="expression" dxfId="34" priority="50">
       <formula>$B65="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="51">
+    <cfRule type="expression" dxfId="33" priority="51">
       <formula>$B65="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O40">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:O50">
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$B24="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>$B24="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$B24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9 T9">
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:N7 P7:T7">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$B6="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B6="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$X$6:$X$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B65" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$X$6:$X$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C65" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$Y$6:$Y$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K65" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$Z$6:$Z$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L65" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>$AA$6:$AA$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M65" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>$AB$6:$AB$24</formula1>
     </dataValidation>
   </dataValidations>

--- a/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
+++ b/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CHN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="124">
   <si>
     <t>*</t>
   </si>
@@ -492,11 +492,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【2019/11/28】
-远程重启设备后正常播放，判断为长时间未断电设备过热引起</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>刘琪</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -542,6 +537,20 @@
   </si>
   <si>
     <t>BeiJing Solana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>166836</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/11/28】
+远程重启设备后正常播放，判断为长时间未断电设备过热引起</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/12/12】
+商场电表问题，无法充值引起设备断电。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1041,28 +1050,7 @@
     <cellStyle name="脱浦 [0.00]_laroux" xfId="10"/>
     <cellStyle name="脱浦_laroux" xfId="11"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="93">
     <dxf>
       <fill>
         <patternFill>
@@ -1747,7 +1735,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1815,7 @@
         <xdr:cNvPr id="3" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2181,7 @@
         <xdr:cNvPr id="4" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{343A9AC4-E784-47A7-BA3D-1DA1019FEE06}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343A9AC4-E784-47A7-BA3D-1DA1019FEE06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2850,7 @@
         <xdr:cNvPr id="5" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70150453-96F1-4BB0-95D7-E157DF2D1E5C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70150453-96F1-4BB0-95D7-E157DF2D1E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3495,11 +3483,11 @@
   <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12"/>
@@ -4058,7 +4046,7 @@
         <v>92</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q9" s="42" t="s">
         <v>85</v>
@@ -4271,7 +4259,7 @@
         <v>78</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>68</v>
@@ -4304,13 +4292,13 @@
         <v>109</v>
       </c>
       <c r="Q12" s="44" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="R12" s="43">
         <v>43797</v>
       </c>
       <c r="S12" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T12" s="43" t="s">
         <v>101</v>
@@ -4340,23 +4328,25 @@
         <v>103</v>
       </c>
       <c r="D13" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="F13" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="29" t="s">
+      <c r="I13" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29" t="s">
+      <c r="J13" s="29" t="s">
         <v>115</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>116</v>
       </c>
       <c r="K13" s="29" t="s">
         <v>40</v>
@@ -4371,12 +4361,14 @@
         <v>6</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P13" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q13" s="32"/>
+        <v>118</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>123</v>
+      </c>
       <c r="R13" s="31"/>
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
@@ -6116,51 +6108,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="61">
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U61:V61"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="U64:V64"/>
     <mergeCell ref="U58:V58"/>
     <mergeCell ref="U52:V52"/>
     <mergeCell ref="U41:V41"/>
@@ -6177,346 +6124,391 @@
     <mergeCell ref="U47:V47"/>
     <mergeCell ref="U48:V48"/>
     <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U61:V61"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="U64:V64"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U7:V7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 C6:N6 C9:C29 D9:G24 C8:U8 D64:G65 C31:C65 Q51:T65 U10:U65 P6:U6 P9:P65 O10:O25 Q9:Q12 Q10:T25 H9:N65">
-    <cfRule type="expression" dxfId="95" priority="433">
+    <cfRule type="expression" dxfId="92" priority="433">
       <formula>$B6="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="438">
+    <cfRule type="expression" dxfId="91" priority="438">
       <formula>$B6="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="439">
+    <cfRule type="expression" dxfId="90" priority="439">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:T26">
-    <cfRule type="expression" dxfId="92" priority="430">
+    <cfRule type="expression" dxfId="89" priority="430">
       <formula>$B26="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="431">
+    <cfRule type="expression" dxfId="88" priority="431">
       <formula>$B26="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="432">
+    <cfRule type="expression" dxfId="87" priority="432">
       <formula>$B26="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="expression" dxfId="89" priority="412">
+    <cfRule type="expression" dxfId="86" priority="412">
       <formula>$B27="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="413">
+    <cfRule type="expression" dxfId="85" priority="413">
       <formula>$B27="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="414">
+    <cfRule type="expression" dxfId="84" priority="414">
       <formula>$B27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="86" priority="409">
+    <cfRule type="expression" dxfId="83" priority="409">
       <formula>$B29="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="410">
+    <cfRule type="expression" dxfId="82" priority="410">
       <formula>$B29="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="411">
+    <cfRule type="expression" dxfId="81" priority="411">
       <formula>$B29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="83" priority="400">
+    <cfRule type="expression" dxfId="80" priority="400">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="401">
+    <cfRule type="expression" dxfId="79" priority="401">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="402">
+    <cfRule type="expression" dxfId="78" priority="402">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="80" priority="397">
+    <cfRule type="expression" dxfId="77" priority="397">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="398">
+    <cfRule type="expression" dxfId="76" priority="398">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="399">
+    <cfRule type="expression" dxfId="75" priority="399">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="77" priority="388">
+    <cfRule type="expression" dxfId="74" priority="388">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="389">
+    <cfRule type="expression" dxfId="73" priority="389">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="390">
+    <cfRule type="expression" dxfId="72" priority="390">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="expression" dxfId="74" priority="382">
+    <cfRule type="expression" dxfId="71" priority="382">
       <formula>$B31="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="383">
+    <cfRule type="expression" dxfId="70" priority="383">
       <formula>$B31="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="384">
+    <cfRule type="expression" dxfId="69" priority="384">
       <formula>$B31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="expression" dxfId="71" priority="256">
+    <cfRule type="expression" dxfId="68" priority="256">
       <formula>$B56="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="257">
+    <cfRule type="expression" dxfId="67" priority="257">
       <formula>$B56="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="258">
+    <cfRule type="expression" dxfId="66" priority="258">
       <formula>$B56="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="expression" dxfId="68" priority="250">
+    <cfRule type="expression" dxfId="65" priority="250">
       <formula>$B57="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="251">
+    <cfRule type="expression" dxfId="64" priority="251">
       <formula>$B57="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="252">
+    <cfRule type="expression" dxfId="63" priority="252">
       <formula>$B57="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:S40">
-    <cfRule type="expression" dxfId="65" priority="148">
+    <cfRule type="expression" dxfId="62" priority="148">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="149">
+    <cfRule type="expression" dxfId="61" priority="149">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="150">
+    <cfRule type="expression" dxfId="60" priority="150">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:T40">
-    <cfRule type="expression" dxfId="62" priority="142">
+    <cfRule type="expression" dxfId="59" priority="142">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="143">
+    <cfRule type="expression" dxfId="58" priority="143">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="144">
+    <cfRule type="expression" dxfId="57" priority="144">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41:S50">
-    <cfRule type="expression" dxfId="59" priority="136">
+    <cfRule type="expression" dxfId="56" priority="136">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="137">
+    <cfRule type="expression" dxfId="55" priority="137">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="138">
+    <cfRule type="expression" dxfId="54" priority="138">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T41:T50">
-    <cfRule type="expression" dxfId="56" priority="130">
+    <cfRule type="expression" dxfId="53" priority="130">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="131">
+    <cfRule type="expression" dxfId="52" priority="131">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="132">
+    <cfRule type="expression" dxfId="51" priority="132">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51:O64 O27:O28">
-    <cfRule type="expression" dxfId="53" priority="64">
+    <cfRule type="expression" dxfId="50" priority="64">
       <formula>$B27="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="65">
+    <cfRule type="expression" dxfId="49" priority="65">
       <formula>$B27="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="66">
+    <cfRule type="expression" dxfId="48" priority="66">
       <formula>$B27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:O27">
-    <cfRule type="expression" dxfId="50" priority="61">
+    <cfRule type="expression" dxfId="47" priority="61">
       <formula>$B25="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="62">
+    <cfRule type="expression" dxfId="46" priority="62">
       <formula>$B25="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="63">
+    <cfRule type="expression" dxfId="45" priority="63">
       <formula>$B25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="expression" dxfId="47" priority="58">
+    <cfRule type="expression" dxfId="44" priority="58">
       <formula>$B29="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="59">
+    <cfRule type="expression" dxfId="43" priority="59">
       <formula>$B29="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="60">
+    <cfRule type="expression" dxfId="42" priority="60">
       <formula>$B29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
-    <cfRule type="expression" dxfId="44" priority="55">
+    <cfRule type="expression" dxfId="41" priority="55">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="56">
+    <cfRule type="expression" dxfId="40" priority="56">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="57">
+    <cfRule type="expression" dxfId="39" priority="57">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="expression" dxfId="41" priority="52">
+    <cfRule type="expression" dxfId="38" priority="52">
       <formula>$B31="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="53">
+    <cfRule type="expression" dxfId="37" priority="53">
       <formula>$B31="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="54">
+    <cfRule type="expression" dxfId="36" priority="54">
       <formula>$B31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65">
-    <cfRule type="expression" dxfId="38" priority="49">
+    <cfRule type="expression" dxfId="35" priority="49">
       <formula>$B65="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="50">
+    <cfRule type="expression" dxfId="34" priority="50">
       <formula>$B65="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="51">
+    <cfRule type="expression" dxfId="33" priority="51">
       <formula>$B65="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O40">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:O50">
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$B24="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>$B24="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$B24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9 T9">
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:N7 P7:T7">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$B6="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B6="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
